--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00496BA1-D123-4566-A112-9E71B5D8BC51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5582FDC-35F8-4A18-BC01-2D519734EDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="13995" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>R</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>Objetivo da Sprint: Realizar planajemento da estrutura do projeto para fazer o tratamento via GCP</t>
+  </si>
+  <si>
+    <t>Realizar extração da base de dados via DATASUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar tratamento da base de dados via GCP </t>
+  </si>
+  <si>
+    <t>Criar um banco de dados no gcp para importar base de dados do DATASUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converter base de dados para CSV </t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1104,117 +1119,117 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1222,46 +1237,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,49 +1282,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3954,7 +3969,7 @@
   <dimension ref="A1:AA158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD48"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,36 +4054,60 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="63"/>
       <c r="F9" s="10"/>
     </row>
@@ -4423,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4469,7 +4508,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="70">
         <v>1</v>
@@ -5636,39 +5675,39 @@
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="101" t="s">
+      <c r="E1" s="94"/>
+      <c r="F1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="111"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -5689,29 +5728,29 @@
       <c r="AA3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="111"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -5732,29 +5771,29 @@
       <c r="AA5" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -5783,81 +5822,81 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
       <c r="E9" s="41"/>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="103"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
     </row>
     <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:27" s="29" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
     </row>
     <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="107"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:27" s="29" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="88"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
     </row>
     <row r="15" spans="1:27" s="29" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
     </row>
     <row r="16" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5868,81 +5907,81 @@
       <c r="C17" s="61"/>
       <c r="D17" s="62"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="1:9" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="90"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="90"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="88"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6070,16 +6109,25 @@
     <row r="147" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="A1:D1"/>
@@ -6093,26 +6141,17 @@
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B14:D15"/>
     <mergeCell ref="B10:D11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:I11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:I15"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:I19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6122,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -6941,40 +6980,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="127"/>
+      <c r="B1" s="136"/>
       <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="136"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="136"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="138"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="140"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="63"/>
     </row>
     <row r="6" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="119" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="34"/>
@@ -7002,7 +7041,7 @@
       <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="34"/>
       <c r="C7" s="63"/>
       <c r="D7" s="16"/>
@@ -7028,7 +7067,7 @@
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="34"/>
       <c r="C8" s="63"/>
       <c r="D8" s="16"/>
@@ -7054,7 +7093,7 @@
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="35"/>
       <c r="C9" s="63"/>
       <c r="D9" s="16"/>
@@ -7080,7 +7119,7 @@
       <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="34"/>
       <c r="C10" s="63"/>
       <c r="D10" s="16"/>
@@ -7106,7 +7145,7 @@
       <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="34"/>
       <c r="C11" s="63"/>
       <c r="D11" s="16"/>
@@ -7132,7 +7171,7 @@
       <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="34"/>
       <c r="C12" s="63"/>
       <c r="D12" s="16"/>
@@ -7158,7 +7197,7 @@
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="34"/>
       <c r="C13" s="63"/>
       <c r="D13" s="16"/>
@@ -7184,7 +7223,7 @@
       <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="34"/>
       <c r="C14" s="63"/>
       <c r="D14" s="16"/>
@@ -7210,7 +7249,7 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="34"/>
       <c r="C15" s="63"/>
       <c r="D15" s="16"/>
@@ -7236,7 +7275,7 @@
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="34"/>
       <c r="C16" s="63"/>
       <c r="D16" s="16"/>
@@ -7262,15 +7301,15 @@
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="142"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="63"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -7295,15 +7334,15 @@
       <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="145"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="146"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="63"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -7328,15 +7367,15 @@
       <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="147" t="s">
+      <c r="A21" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="145"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="148"/>
-      <c r="B22" s="146"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -7363,128 +7402,128 @@
     <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="127"/>
+      <c r="B25" s="136"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="138"/>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="129"/>
+      <c r="B27" s="138"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="140"/>
     </row>
     <row r="29" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="118" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="31"/>
     </row>
     <row r="31" spans="1:24" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="133"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="32"/>
     </row>
     <row r="32" spans="1:24" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="32"/>
     </row>
     <row r="33" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="133"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="33"/>
     </row>
     <row r="34" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="33"/>
     </row>
     <row r="35" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="33"/>
     </row>
     <row r="38" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="33"/>
     </row>
     <row r="39" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="33"/>
     </row>
     <row r="40" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="33"/>
     </row>
     <row r="41" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="33"/>
     </row>
     <row r="42" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="133"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="33"/>
     </row>
     <row r="43" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="32"/>
     </row>
     <row r="44" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="133"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="32"/>
     </row>
     <row r="45" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="30"/>
     </row>
     <row r="46" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="124"/>
+      <c r="B46" s="147"/>
     </row>
     <row r="47" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="148"/>
     </row>
     <row r="48" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="118" t="s">
+      <c r="A48" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="122"/>
+      <c r="B48" s="145"/>
     </row>
     <row r="49" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
-      <c r="B49" s="123"/>
+      <c r="A49" s="142"/>
+      <c r="B49" s="146"/>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="120"/>
+      <c r="B50" s="143"/>
     </row>
     <row r="51" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
-      <c r="B51" s="121"/>
+      <c r="A51" s="142"/>
+      <c r="B51" s="144"/>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7612,6 +7651,14 @@
     <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A30:A45"/>
     <mergeCell ref="C1:C21"/>
     <mergeCell ref="A3:B3"/>
@@ -7628,14 +7675,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7662,36 +7701,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="127"/>
+      <c r="B1" s="136"/>
       <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="155"/>
+      <c r="B2" s="157"/>
       <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="138"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
-      <c r="B4" s="157"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:25" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="63"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -7717,8 +7756,8 @@
       <c r="Y5" s="16"/>
     </row>
     <row r="6" spans="1:25" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="63"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -7744,15 +7783,15 @@
       <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="120"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="63"/>
     </row>
     <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="63"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -7778,15 +7817,15 @@
       <c r="Y8" s="29"/>
     </row>
     <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="63"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -7812,14 +7851,14 @@
       <c r="Y10" s="29"/>
     </row>
     <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="133" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="42"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -7846,7 +7885,7 @@
       <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="42"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -7875,65 +7914,65 @@
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="127"/>
+      <c r="B16" s="136"/>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="155"/>
+      <c r="B17" s="157"/>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="124"/>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
-      <c r="B19" s="157"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="159"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="152"/>
+      <c r="B20" s="161"/>
     </row>
     <row r="21" spans="1:2" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
-      <c r="B21" s="153"/>
+      <c r="A21" s="142"/>
+      <c r="B21" s="162"/>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="158"/>
+      <c r="B22" s="149"/>
     </row>
     <row r="23" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="159"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="150"/>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="161"/>
+      <c r="B24" s="152"/>
     </row>
     <row r="25" spans="1:2" s="29" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="162"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="153"/>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163" t="s">
+      <c r="A26" s="154" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="44"/>
     </row>
     <row r="27" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="43"/>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8055,11 +8094,14 @@
     <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C1:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8070,14 +8112,11 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5582FDC-35F8-4A18-BC01-2D519734EDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94525784-573E-4EB5-9492-65F73D73295E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="14640" windowHeight="13995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>R</t>
   </si>
@@ -233,15 +233,6 @@
     <t xml:space="preserve">Data da Retrospectiva    </t>
   </si>
   <si>
-    <t>Puxar os dados da API</t>
-  </si>
-  <si>
-    <t>Realizar tratamento via Pyhton</t>
-  </si>
-  <si>
-    <t>Realizar tratamento da base de dados</t>
-  </si>
-  <si>
     <t>Definition of Done: Tratamento e Cloud Computer</t>
   </si>
   <si>
@@ -251,16 +242,197 @@
     <t>Realizar extração da base de dados via DATASUS</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar tratamento da base de dados via GCP </t>
-  </si>
-  <si>
-    <t>Criar um banco de dados no gcp para importar base de dados do DATASUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converter base de dados para CSV </t>
-  </si>
-  <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Realizar Required field no Computer Enginer do gcp</t>
+  </si>
+  <si>
+    <t>Realizar o tratamento da base via jupyter notebook</t>
+  </si>
+  <si>
+    <t>Realizar o armazenamento da base de dados Cloud Storage via GCP</t>
+  </si>
+  <si>
+    <t>Realizar o Insert da base de dados no BigQuery</t>
+  </si>
+  <si>
+    <t>Realizar o tratamento da base no BigQuery</t>
+  </si>
+  <si>
+    <t>Realizar a conexão do BigQuery para o PowerBI</t>
+  </si>
+  <si>
+    <t>Realizar o tratamento das tables Dim e Fato no PowerBI</t>
+  </si>
+  <si>
+    <t>Realizar as procedures das tables Dim e Fato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar o Dashboard com analises de indicadores </t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser capaz de realizar o tratamento da base dados </t>
+  </si>
+  <si>
+    <t>Para criar uma analise de indicadores sobre a depressão no estado de SP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GCP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quero fazer o ETL da base de dados do DATASUS</t>
+    </r>
+  </si>
+  <si>
+    <t>GCP Inválido</t>
+  </si>
+  <si>
+    <t>GCP Válido</t>
+  </si>
+  <si>
+    <t>Dominio</t>
+  </si>
+  <si>
+    <t>Google Clould Platform vai realizar a cosulta do dominio que foi fornecido para poder obter os dados.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Google Cloud Platform vai consultar o tamanho da base de dados. Caso o suporte fornecido pela conta GCP seja </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> do que o tamanho do banco de dados, aparecerá uma notificação invalidando a ação.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Google Cloud Platform vai consultar o tamanho da base de dados. Caso o suporte fornecido pela conta GCP seja</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> do que o tamanho do banco de dados, aparecerá uma notificação validando a ação.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATASUS: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quero importar base de dados do datasus para GCP</t>
+    </r>
+  </si>
+  <si>
+    <t>Ser capaz de armazenar a base de dados do datasus no meu GCP</t>
+  </si>
+  <si>
+    <t>Para realizar o tratamento e consulta dessa base no GCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATASUS fora do ar </t>
+  </si>
+  <si>
+    <t>Não é possível acessar esse site</t>
+  </si>
+  <si>
+    <t>É possível acessar esse site</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caminho do site foi informado errado, portanto irá aparecer a seguinte mensagem: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Não é possível acessar esse site                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A página ftp://ftp.datasus.gov.br/disse pode estar temporariamente indisponível ou pode ter sido movida permanentemente para um novo endereço da Web.
+ERR_FTP_FAILED</t>
+    </r>
+  </si>
+  <si>
+    <t>Caminho do site foi informado corretamente, portanto será possivel acessar o site.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POWER BI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quero fazer o dashboard das bases de dados</t>
+    </r>
+  </si>
+  <si>
+    <t>Não conseguir conexão</t>
+  </si>
+  <si>
+    <t>Conseguir conexão</t>
+  </si>
+  <si>
+    <t>Não conseguir conexão com o GCP para importar as bases de dados.</t>
+  </si>
+  <si>
+    <t>Conseguir importar todas as bases de dados do GCP, para realizar o tratamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser capaz de tratar e analisar visualmente às informações </t>
+  </si>
+  <si>
+    <t>Para facilitar a visualização do público interessado.</t>
   </si>
 </sst>
 </file>
@@ -400,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -948,11 +1120,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1089,6 +1285,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,6 +1316,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,45 +1375,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1188,48 +1391,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1237,6 +1401,42 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1286,62 +1486,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1354,17 +1509,110 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3966,10 +4214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA158"/>
+  <dimension ref="A1:AA139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,34 +4232,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:27" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -4026,7 +4274,7 @@
       <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -4055,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -4063,14 +4311,14 @@
       <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5">
         <v>10</v>
@@ -4078,29 +4326,29 @@
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="63"/>
+        <v>68</v>
+      </c>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -4108,60 +4356,96 @@
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="63"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="63"/>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="64"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="63"/>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="63"/>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="63"/>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -4171,171 +4455,38 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>28</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>29</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>30</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4427,25 +4578,6 @@
     <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
@@ -4462,7 +4594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4475,13 +4607,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
@@ -4507,10 +4639,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="73">
+      <c r="B3" s="74">
         <v>1</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="71">
         <v>1</v>
       </c>
       <c r="D3" s="48"/>
@@ -4524,8 +4656,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
       <c r="F4" s="52"/>
@@ -4537,7 +4669,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="54">
         <v>2</v>
       </c>
@@ -5648,10 +5780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA147"/>
+  <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:I23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,323 +5800,407 @@
     <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:27" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="91" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
+    </row>
+    <row r="2" spans="1:27" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="B2" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="79"/>
+      <c r="I2" s="100"/>
+    </row>
+    <row r="3" spans="1:27" s="60" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="93"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
+    </row>
+    <row r="4" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="B4" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="100"/>
+    </row>
+    <row r="5" spans="1:27" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="166"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-    </row>
-    <row r="8" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:27" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="B6" s="173" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="169"/>
+      <c r="D6" s="174"/>
+      <c r="F6" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="179"/>
+      <c r="I6" s="180"/>
+    </row>
+    <row r="7" spans="1:27" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="177"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="177"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="91" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-    </row>
-    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
-    </row>
-    <row r="11" spans="1:27" s="29" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="B11" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="79"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="93"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="1:27" s="29" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="B13" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="88"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="102"/>
-    </row>
-    <row r="15" spans="1:27" s="29" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="B15" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="91" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+    </row>
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
-    </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="B20" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="178" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="181"/>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
-    </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="90"/>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="B22" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="179" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="181"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="88"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="102"/>
-    </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B24" s="169" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+    </row>
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="91"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
     <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6104,56 +6320,67 @@
     <row r="142" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="143" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="144" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:I11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:I15"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:I19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D19"/>
+  <mergeCells count="41">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G11:I12"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="G15:I16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:D21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:D23"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E6"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:I3"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:I5"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:I7"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6162,7 +6389,7 @@
   <dimension ref="A1:AA175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,53 +6404,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="1:27" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -6238,7 +6465,7 @@
       <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -6267,58 +6494,66 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="38"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="63"/>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>49</v>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="63"/>
+      <c r="E9" s="64"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D10" s="38"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="63"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -6327,7 +6562,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -6336,7 +6571,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -6345,7 +6580,7 @@
       <c r="B14" s="22"/>
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -6544,10 +6779,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AA169"/>
+  <dimension ref="A1:AA160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6562,53 +6797,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="1:27" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -6623,7 +6858,7 @@
       <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -6651,50 +6886,70 @@
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D7" s="36"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="63"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D9" s="36"/>
-      <c r="E9" s="63"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="36"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" s="36"/>
-      <c r="E11" s="63"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6704,7 +6959,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="37"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6714,101 +6969,37 @@
       <c r="B13" s="28"/>
       <c r="C13" s="37"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="37"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="36"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>10</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="36"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>11</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="36"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>12</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>13</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6937,15 +7128,6 @@
     <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
@@ -6966,8 +7148,8 @@
   </sheetPr>
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6980,44 +7162,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="121" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="63"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -7041,9 +7223,9 @@
       <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="63"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -7067,9 +7249,9 @@
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -7093,9 +7275,9 @@
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -7119,9 +7301,9 @@
       <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -7145,9 +7327,9 @@
       <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -7171,9 +7353,9 @@
       <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -7197,9 +7379,9 @@
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -7223,9 +7405,9 @@
       <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -7249,9 +7431,9 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -7275,9 +7457,9 @@
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -7301,16 +7483,16 @@
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -7334,16 +7516,16 @@
       <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -7367,15 +7549,15 @@
       <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="132"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -7402,128 +7584,128 @@
     <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="136"/>
+      <c r="B25" s="138"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="138"/>
+      <c r="B26" s="109"/>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="138"/>
+      <c r="B27" s="109"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="140"/>
+      <c r="B28" s="111"/>
     </row>
     <row r="29" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="120" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="31"/>
     </row>
     <row r="31" spans="1:24" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="32"/>
     </row>
     <row r="32" spans="1:24" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="32"/>
     </row>
     <row r="33" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="33"/>
     </row>
     <row r="34" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="33"/>
     </row>
     <row r="35" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="33"/>
     </row>
     <row r="38" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="33"/>
     </row>
     <row r="39" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="33"/>
     </row>
     <row r="40" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="33"/>
     </row>
     <row r="41" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="33"/>
     </row>
     <row r="42" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="33"/>
     </row>
     <row r="43" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="32"/>
     </row>
     <row r="44" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="32"/>
     </row>
     <row r="45" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="30"/>
     </row>
     <row r="46" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="141" t="s">
+      <c r="A46" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="147"/>
+      <c r="B46" s="118"/>
     </row>
     <row r="47" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="142"/>
-      <c r="B47" s="148"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="119"/>
     </row>
     <row r="48" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="141" t="s">
+      <c r="A48" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="145"/>
+      <c r="B48" s="116"/>
     </row>
     <row r="49" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="142"/>
-      <c r="B49" s="146"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="117"/>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="141" t="s">
+      <c r="A50" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="143"/>
+      <c r="B50" s="114"/>
     </row>
     <row r="51" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="144"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="115"/>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7651,15 +7833,8 @@
     <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A30:A45"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="C1:C21"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -7673,8 +7848,15 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A30:A45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7687,7 +7869,7 @@
   </sheetPr>
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -7701,37 +7883,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:25" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -7756,9 +7938,9 @@
       <c r="Y5" s="16"/>
     </row>
     <row r="6" spans="1:25" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -7783,16 +7965,16 @@
       <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="64"/>
     </row>
     <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -7817,16 +7999,16 @@
       <c r="Y8" s="29"/>
     </row>
     <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -7851,14 +8033,14 @@
       <c r="Y10" s="29"/>
     </row>
     <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="135" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="42"/>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="42"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -7885,7 +8067,7 @@
       <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="42"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -7914,65 +8096,65 @@
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="136"/>
+      <c r="B16" s="138"/>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="157"/>
+      <c r="B17" s="144"/>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="124"/>
+      <c r="B18" s="126"/>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
-      <c r="B19" s="159"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="161"/>
+      <c r="B20" s="139"/>
     </row>
     <row r="21" spans="1:2" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="142"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="140"/>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="149"/>
+      <c r="B22" s="148"/>
     </row>
     <row r="23" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="142"/>
-      <c r="B23" s="150"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="149"/>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="152"/>
+      <c r="B24" s="151"/>
     </row>
     <row r="25" spans="1:2" s="29" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="151"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="152"/>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="154" t="s">
+      <c r="A26" s="153" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="44"/>
     </row>
     <row r="27" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="43"/>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8094,14 +8276,11 @@
     <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C1:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8112,11 +8291,14 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94525784-573E-4EB5-9492-65F73D73295E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E962E6AE-524A-4042-8E00-F1000D1E37F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="14640" windowHeight="13995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="14640" windowHeight="13995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1162,7 +1162,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1316,83 +1315,167 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1401,50 +1484,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1458,6 +1506,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,21 +1539,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1509,110 +1601,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4232,71 +4231,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="64"/>
-    </row>
-    <row r="5" spans="1:27" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4311,7 +4310,7 @@
       <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -4326,7 +4325,7 @@
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -4338,10 +4337,10 @@
       <c r="C8" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -4356,8 +4355,8 @@
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -4372,7 +4371,7 @@
       <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -4387,7 +4386,7 @@
       <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -4402,7 +4401,7 @@
       <c r="D12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -4417,7 +4416,7 @@
       <c r="D13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -4600,1171 +4599,1171 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="3" width="11.42578125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="3" width="11.42578125" style="20" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="38" width="9.140625" style="11"/>
+    <col min="6" max="38" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="74">
+      <c r="B3" s="73">
         <v>1</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="70">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="51"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="H3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="52"/>
-      <c r="H4" s="47" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="51"/>
+      <c r="H4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="76"/>
-      <c r="C5" s="54">
+      <c r="B5" s="75"/>
+      <c r="C5" s="53">
         <v>2</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="H5" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="53"/>
-      <c r="H6" s="47" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="52"/>
+      <c r="H6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="H7" s="47" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="H7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-    </row>
-    <row r="39" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-    </row>
-    <row r="40" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-    </row>
-    <row r="43" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-    </row>
-    <row r="44" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-    </row>
-    <row r="45" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-    </row>
-    <row r="46" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-    </row>
-    <row r="47" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-    </row>
-    <row r="68" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-    </row>
-    <row r="74" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-    </row>
-    <row r="77" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-    </row>
-    <row r="79" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-    </row>
-    <row r="82" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-    </row>
-    <row r="83" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-    </row>
-    <row r="86" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-    </row>
-    <row r="87" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-    </row>
-    <row r="88" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-    </row>
-    <row r="89" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-    </row>
-    <row r="90" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-    </row>
-    <row r="91" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-    </row>
-    <row r="92" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-    </row>
-    <row r="93" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-    </row>
-    <row r="94" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-    </row>
-    <row r="95" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-    </row>
-    <row r="96" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-    </row>
-    <row r="97" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-    </row>
-    <row r="98" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-    </row>
-    <row r="99" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-    </row>
-    <row r="100" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-    </row>
-    <row r="101" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-    </row>
-    <row r="102" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-    </row>
-    <row r="103" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-    </row>
-    <row r="104" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-    </row>
-    <row r="105" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-    </row>
-    <row r="106" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-    </row>
-    <row r="107" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-    </row>
-    <row r="108" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-    </row>
-    <row r="109" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-    </row>
-    <row r="110" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-    </row>
-    <row r="111" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-    </row>
-    <row r="112" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-    </row>
-    <row r="113" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-    </row>
-    <row r="114" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-    </row>
-    <row r="115" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-    </row>
-    <row r="116" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-    </row>
-    <row r="117" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-    </row>
-    <row r="118" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-    </row>
-    <row r="119" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-    </row>
-    <row r="120" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-    </row>
-    <row r="121" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-    </row>
-    <row r="122" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-    </row>
-    <row r="123" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-    </row>
-    <row r="124" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-    </row>
-    <row r="125" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-    </row>
-    <row r="126" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-    </row>
-    <row r="127" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-    </row>
-    <row r="128" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
-    </row>
-    <row r="129" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-    </row>
-    <row r="130" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-    </row>
-    <row r="131" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-    </row>
-    <row r="132" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-    </row>
-    <row r="133" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-    </row>
-    <row r="134" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-    </row>
-    <row r="135" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-    </row>
-    <row r="136" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-    </row>
-    <row r="137" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-    </row>
-    <row r="138" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-    </row>
-    <row r="139" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-    </row>
-    <row r="140" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-    </row>
-    <row r="141" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-    </row>
-    <row r="142" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-    </row>
-    <row r="143" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-    </row>
-    <row r="144" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
-    </row>
-    <row r="145" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-    </row>
-    <row r="146" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
-    </row>
-    <row r="147" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-    </row>
-    <row r="148" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-    </row>
-    <row r="149" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
-    </row>
-    <row r="150" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
-    </row>
-    <row r="151" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="20"/>
-      <c r="C151" s="20"/>
-    </row>
-    <row r="152" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
-    </row>
-    <row r="153" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
-    </row>
-    <row r="154" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
-    </row>
-    <row r="155" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-    </row>
-    <row r="156" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-    </row>
-    <row r="157" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-    </row>
-    <row r="158" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
-    </row>
-    <row r="159" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="20"/>
-      <c r="C159" s="20"/>
-    </row>
-    <row r="160" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="20"/>
-      <c r="C160" s="20"/>
-    </row>
-    <row r="161" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
-    </row>
-    <row r="162" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="20"/>
-      <c r="C162" s="20"/>
-    </row>
-    <row r="163" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="20"/>
-      <c r="C163" s="20"/>
-    </row>
-    <row r="164" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-    </row>
-    <row r="165" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
-    </row>
-    <row r="166" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
-    </row>
-    <row r="167" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
-    </row>
-    <row r="168" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-    </row>
-    <row r="169" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
-    </row>
-    <row r="170" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-    </row>
-    <row r="171" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
-    </row>
-    <row r="172" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
-    </row>
-    <row r="173" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-    </row>
-    <row r="174" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
-    </row>
-    <row r="175" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-    </row>
-    <row r="176" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
-    </row>
-    <row r="177" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-    </row>
-    <row r="178" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-    </row>
-    <row r="179" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="20"/>
-      <c r="C179" s="20"/>
-    </row>
-    <row r="180" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-    </row>
-    <row r="181" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="20"/>
-      <c r="C181" s="20"/>
-    </row>
-    <row r="182" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="20"/>
-      <c r="C182" s="20"/>
-    </row>
-    <row r="183" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
-    </row>
-    <row r="184" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-    </row>
-    <row r="185" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="20"/>
-      <c r="C185" s="20"/>
-    </row>
-    <row r="186" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
-    </row>
-    <row r="187" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
-    </row>
-    <row r="188" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="20"/>
-      <c r="C188" s="20"/>
-    </row>
-    <row r="189" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="20"/>
-      <c r="C189" s="20"/>
-    </row>
-    <row r="190" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
-    </row>
-    <row r="191" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="20"/>
-      <c r="C191" s="20"/>
-    </row>
-    <row r="192" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="20"/>
-      <c r="C192" s="20"/>
-    </row>
-    <row r="193" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="20"/>
-      <c r="C193" s="20"/>
-    </row>
-    <row r="194" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="20"/>
-      <c r="C194" s="20"/>
-    </row>
-    <row r="195" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="20"/>
-      <c r="C195" s="20"/>
-    </row>
-    <row r="196" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="20"/>
-      <c r="C196" s="20"/>
-    </row>
-    <row r="197" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="20"/>
-      <c r="C197" s="20"/>
-    </row>
-    <row r="198" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
-    </row>
-    <row r="199" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
-    </row>
-    <row r="200" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="20"/>
-      <c r="C200" s="20"/>
-    </row>
-    <row r="201" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
-    </row>
-    <row r="202" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
-    </row>
-    <row r="203" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="20"/>
-      <c r="C203" s="20"/>
-    </row>
-    <row r="204" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
-    </row>
-    <row r="205" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
-    </row>
-    <row r="206" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
-    </row>
-    <row r="207" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="20"/>
-      <c r="C207" s="20"/>
-    </row>
-    <row r="208" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
-    </row>
-    <row r="209" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
-    </row>
-    <row r="210" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
-    </row>
-    <row r="211" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
-    </row>
-    <row r="212" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="20"/>
-      <c r="C212" s="20"/>
-    </row>
-    <row r="213" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
-    </row>
-    <row r="214" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-    </row>
-    <row r="215" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="20"/>
-      <c r="C215" s="20"/>
-    </row>
-    <row r="216" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
-    </row>
-    <row r="217" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
-    </row>
-    <row r="218" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
-    </row>
-    <row r="219" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
-    </row>
-    <row r="220" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="20"/>
-      <c r="C220" s="20"/>
-    </row>
-    <row r="221" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
-    </row>
-    <row r="222" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="20"/>
-      <c r="C222" s="20"/>
-    </row>
-    <row r="223" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
-    </row>
-    <row r="224" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="20"/>
-      <c r="C224" s="20"/>
-    </row>
-    <row r="225" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
-    </row>
-    <row r="226" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
-    </row>
-    <row r="227" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="20"/>
-      <c r="C227" s="20"/>
-    </row>
-    <row r="228" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="20"/>
-      <c r="C228" s="20"/>
-    </row>
-    <row r="229" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
-    </row>
-    <row r="230" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="20"/>
-      <c r="C230" s="20"/>
-    </row>
-    <row r="231" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-    </row>
-    <row r="232" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
-    </row>
-    <row r="233" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="20"/>
-      <c r="C233" s="20"/>
-    </row>
-    <row r="234" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
-    </row>
-    <row r="235" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="20"/>
-      <c r="C235" s="20"/>
-    </row>
-    <row r="236" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
-    </row>
-    <row r="237" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
-    </row>
-    <row r="238" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
-    </row>
-    <row r="239" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="20"/>
-      <c r="C239" s="20"/>
-    </row>
-    <row r="240" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
-    </row>
-    <row r="241" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="20"/>
-      <c r="C241" s="20"/>
-    </row>
-    <row r="242" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="20"/>
-      <c r="C242" s="20"/>
-    </row>
-    <row r="243" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="20"/>
-      <c r="C243" s="20"/>
-    </row>
-    <row r="244" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
-    </row>
-    <row r="245" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="20"/>
-      <c r="C245" s="20"/>
-    </row>
-    <row r="246" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="20"/>
-      <c r="C246" s="20"/>
-    </row>
-    <row r="247" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="20"/>
-      <c r="C247" s="20"/>
-    </row>
-    <row r="248" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
-    </row>
-    <row r="249" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
-    </row>
-    <row r="250" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="20"/>
-      <c r="C250" s="20"/>
-    </row>
-    <row r="251" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="20"/>
-      <c r="C251" s="20"/>
-    </row>
-    <row r="252" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="20"/>
-      <c r="C252" s="20"/>
-    </row>
-    <row r="253" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
-    </row>
-    <row r="254" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="20"/>
-      <c r="C254" s="20"/>
-    </row>
-    <row r="255" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="20"/>
-      <c r="C255" s="20"/>
-    </row>
-    <row r="256" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="20"/>
-      <c r="C256" s="20"/>
-    </row>
-    <row r="257" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="20"/>
-      <c r="C257" s="20"/>
-    </row>
-    <row r="258" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="20"/>
-      <c r="C258" s="20"/>
-    </row>
-    <row r="259" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="20"/>
-      <c r="C259" s="20"/>
-    </row>
-    <row r="260" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="20"/>
-      <c r="C260" s="20"/>
-    </row>
-    <row r="261" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="20"/>
-      <c r="C261" s="20"/>
-    </row>
-    <row r="262" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
-    </row>
-    <row r="263" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="20"/>
-      <c r="C263" s="20"/>
-    </row>
-    <row r="264" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="20"/>
-      <c r="C264" s="20"/>
-    </row>
-    <row r="265" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="20"/>
-      <c r="C265" s="20"/>
-    </row>
-    <row r="266" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="21"/>
-      <c r="C266" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="37" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+    </row>
+    <row r="47" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+    </row>
+    <row r="48" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+    </row>
+    <row r="49" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+    </row>
+    <row r="50" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+    </row>
+    <row r="51" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+    </row>
+    <row r="53" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+    </row>
+    <row r="54" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+    </row>
+    <row r="55" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+    </row>
+    <row r="56" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+    </row>
+    <row r="59" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+    </row>
+    <row r="61" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+    </row>
+    <row r="62" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+    </row>
+    <row r="63" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+    </row>
+    <row r="64" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+    </row>
+    <row r="65" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+    </row>
+    <row r="66" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+    </row>
+    <row r="67" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+    </row>
+    <row r="68" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+    </row>
+    <row r="69" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+    </row>
+    <row r="70" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+    </row>
+    <row r="71" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+    </row>
+    <row r="72" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+    </row>
+    <row r="73" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+    </row>
+    <row r="74" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+    </row>
+    <row r="75" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+    </row>
+    <row r="76" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+    </row>
+    <row r="77" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+    </row>
+    <row r="78" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+    </row>
+    <row r="79" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+    </row>
+    <row r="80" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+    </row>
+    <row r="81" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+    </row>
+    <row r="82" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+    </row>
+    <row r="83" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+    </row>
+    <row r="84" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+    </row>
+    <row r="85" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+    </row>
+    <row r="86" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+    </row>
+    <row r="87" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+    </row>
+    <row r="88" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+    </row>
+    <row r="89" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+    </row>
+    <row r="90" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+    </row>
+    <row r="91" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+    </row>
+    <row r="92" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+    </row>
+    <row r="93" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+    </row>
+    <row r="94" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+    </row>
+    <row r="95" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+    </row>
+    <row r="96" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+    </row>
+    <row r="97" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+    </row>
+    <row r="98" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+    </row>
+    <row r="99" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+    </row>
+    <row r="100" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+    </row>
+    <row r="101" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+    </row>
+    <row r="102" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+    </row>
+    <row r="103" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+    </row>
+    <row r="104" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+    </row>
+    <row r="105" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+    </row>
+    <row r="106" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+    </row>
+    <row r="107" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+    </row>
+    <row r="108" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+    </row>
+    <row r="109" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+    </row>
+    <row r="110" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+    </row>
+    <row r="111" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+    </row>
+    <row r="112" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+    </row>
+    <row r="113" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+    </row>
+    <row r="114" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+    </row>
+    <row r="115" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+    </row>
+    <row r="116" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+    </row>
+    <row r="117" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+    </row>
+    <row r="118" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+    </row>
+    <row r="120" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+    </row>
+    <row r="121" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+    </row>
+    <row r="123" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+    </row>
+    <row r="124" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+    </row>
+    <row r="126" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+    </row>
+    <row r="127" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+    </row>
+    <row r="128" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+    </row>
+    <row r="130" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+    </row>
+    <row r="131" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+    </row>
+    <row r="132" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+    </row>
+    <row r="133" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+    </row>
+    <row r="134" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+    </row>
+    <row r="135" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+    </row>
+    <row r="136" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+    </row>
+    <row r="137" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+    </row>
+    <row r="138" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+    </row>
+    <row r="139" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+    </row>
+    <row r="140" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+    </row>
+    <row r="141" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+    </row>
+    <row r="142" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+    </row>
+    <row r="143" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+    </row>
+    <row r="144" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+    </row>
+    <row r="145" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+    </row>
+    <row r="146" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+    </row>
+    <row r="147" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+    </row>
+    <row r="148" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+    </row>
+    <row r="149" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+    </row>
+    <row r="150" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+    </row>
+    <row r="151" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+    </row>
+    <row r="152" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+    </row>
+    <row r="153" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+    </row>
+    <row r="154" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+    </row>
+    <row r="155" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+    </row>
+    <row r="156" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+    </row>
+    <row r="157" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+    </row>
+    <row r="158" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+    </row>
+    <row r="159" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+    </row>
+    <row r="160" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+    </row>
+    <row r="161" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+    </row>
+    <row r="162" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
+    </row>
+    <row r="163" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+    </row>
+    <row r="164" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+    </row>
+    <row r="165" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+    </row>
+    <row r="166" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+    </row>
+    <row r="167" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+    </row>
+    <row r="168" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+    </row>
+    <row r="169" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+    </row>
+    <row r="170" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+    </row>
+    <row r="171" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+    </row>
+    <row r="172" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+    </row>
+    <row r="173" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+    </row>
+    <row r="174" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+    </row>
+    <row r="175" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+    </row>
+    <row r="176" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+    </row>
+    <row r="177" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+    </row>
+    <row r="178" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
+    </row>
+    <row r="179" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+    </row>
+    <row r="180" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+    </row>
+    <row r="181" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+    </row>
+    <row r="182" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+    </row>
+    <row r="183" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+    </row>
+    <row r="184" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+    </row>
+    <row r="185" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+    </row>
+    <row r="186" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+    </row>
+    <row r="187" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
+    </row>
+    <row r="188" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+    </row>
+    <row r="189" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+    </row>
+    <row r="190" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+    </row>
+    <row r="191" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+    </row>
+    <row r="192" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+    </row>
+    <row r="193" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+    </row>
+    <row r="194" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+    </row>
+    <row r="195" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+    </row>
+    <row r="196" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
+    </row>
+    <row r="197" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+    </row>
+    <row r="198" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+    </row>
+    <row r="199" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="19"/>
+      <c r="C199" s="19"/>
+    </row>
+    <row r="200" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
+    </row>
+    <row r="201" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+    </row>
+    <row r="202" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
+    </row>
+    <row r="203" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
+    </row>
+    <row r="204" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+    </row>
+    <row r="205" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+    </row>
+    <row r="206" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+    </row>
+    <row r="207" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+    </row>
+    <row r="208" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+    </row>
+    <row r="209" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+    </row>
+    <row r="210" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="19"/>
+      <c r="C210" s="19"/>
+    </row>
+    <row r="211" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+    </row>
+    <row r="212" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+    </row>
+    <row r="213" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+    </row>
+    <row r="214" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
+    </row>
+    <row r="215" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="19"/>
+      <c r="C215" s="19"/>
+    </row>
+    <row r="216" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+    </row>
+    <row r="217" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
+    </row>
+    <row r="218" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
+    </row>
+    <row r="219" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+    </row>
+    <row r="220" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+    </row>
+    <row r="221" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="19"/>
+      <c r="C221" s="19"/>
+    </row>
+    <row r="222" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="19"/>
+      <c r="C222" s="19"/>
+    </row>
+    <row r="223" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
+    </row>
+    <row r="224" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="19"/>
+      <c r="C224" s="19"/>
+    </row>
+    <row r="225" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
+    </row>
+    <row r="226" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="19"/>
+      <c r="C226" s="19"/>
+    </row>
+    <row r="227" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="19"/>
+      <c r="C227" s="19"/>
+    </row>
+    <row r="228" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="19"/>
+      <c r="C228" s="19"/>
+    </row>
+    <row r="229" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
+    </row>
+    <row r="230" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="19"/>
+      <c r="C230" s="19"/>
+    </row>
+    <row r="231" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
+    </row>
+    <row r="232" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
+    </row>
+    <row r="233" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
+    </row>
+    <row r="234" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
+    </row>
+    <row r="235" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+    </row>
+    <row r="236" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="19"/>
+      <c r="C236" s="19"/>
+    </row>
+    <row r="237" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
+    </row>
+    <row r="238" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
+    </row>
+    <row r="239" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="19"/>
+      <c r="C239" s="19"/>
+    </row>
+    <row r="240" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="19"/>
+      <c r="C240" s="19"/>
+    </row>
+    <row r="241" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="19"/>
+      <c r="C241" s="19"/>
+    </row>
+    <row r="242" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="19"/>
+      <c r="C242" s="19"/>
+    </row>
+    <row r="243" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
+    </row>
+    <row r="244" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
+    </row>
+    <row r="245" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
+    </row>
+    <row r="246" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="19"/>
+      <c r="C246" s="19"/>
+    </row>
+    <row r="247" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
+    </row>
+    <row r="248" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
+    </row>
+    <row r="249" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+    </row>
+    <row r="250" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="19"/>
+      <c r="C250" s="19"/>
+    </row>
+    <row r="251" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
+    </row>
+    <row r="252" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="19"/>
+      <c r="C252" s="19"/>
+    </row>
+    <row r="253" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
+    </row>
+    <row r="254" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="19"/>
+      <c r="C254" s="19"/>
+    </row>
+    <row r="255" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="19"/>
+      <c r="C255" s="19"/>
+    </row>
+    <row r="256" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="19"/>
+      <c r="C256" s="19"/>
+    </row>
+    <row r="257" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="19"/>
+      <c r="C257" s="19"/>
+    </row>
+    <row r="258" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="19"/>
+      <c r="C258" s="19"/>
+    </row>
+    <row r="259" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="19"/>
+      <c r="C259" s="19"/>
+    </row>
+    <row r="260" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
+    </row>
+    <row r="261" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
+    </row>
+    <row r="262" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="19"/>
+      <c r="C262" s="19"/>
+    </row>
+    <row r="263" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
+    </row>
+    <row r="264" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="19"/>
+      <c r="C264" s="19"/>
+    </row>
+    <row r="265" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="19"/>
+      <c r="C265" s="19"/>
+    </row>
+    <row r="266" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
+    <row r="267" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="21"/>
-      <c r="C268" s="21"/>
+    <row r="268" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="21"/>
-      <c r="C269" s="21"/>
+    <row r="269" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
       <c r="D269"/>
       <c r="E269"/>
     </row>
@@ -5792,544 +5791,544 @@
     <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="8" customWidth="1"/>
     <col min="6" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="37.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="27" width="14.42578125" style="9"/>
+    <col min="11" max="27" width="14.42578125" style="8"/>
     <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:27" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="157" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
-    </row>
-    <row r="2" spans="1:27" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+    </row>
+    <row r="2" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="167" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="100"/>
-    </row>
-    <row r="3" spans="1:27" s="60" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-    </row>
-    <row r="4" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
+    </row>
+    <row r="3" spans="1:27" s="59" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="111"/>
+    </row>
+    <row r="4" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="167" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" spans="1:27" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="166"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-    </row>
-    <row r="6" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="H4" s="107"/>
+      <c r="I4" s="108"/>
+    </row>
+    <row r="5" spans="1:27" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="174"/>
-      <c r="F6" s="77" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="F6" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="178" t="s">
+      <c r="G6" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="179"/>
-      <c r="I6" s="180"/>
-    </row>
-    <row r="7" spans="1:27" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="177"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+    </row>
+    <row r="7" spans="1:27" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
+      <c r="E8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
+      <c r="E9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="87" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="84" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="77" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="77" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="87" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+    </row>
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="90" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="178" t="s">
+      <c r="G20" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="181"/>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="91"/>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+    </row>
+    <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+    </row>
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="84" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="179" t="s">
+      <c r="G22" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="181"/>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="91"/>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+    </row>
+    <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121"/>
+    </row>
+    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
-    </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="91"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="82"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="6:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -6337,17 +6336,20 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D25"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A10:D10"/>
@@ -6361,23 +6363,20 @@
     <mergeCell ref="B15:D16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D25"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:I3"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6386,10 +6385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA175"/>
+  <dimension ref="A1:AA172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6404,90 +6403,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="64"/>
-    </row>
-    <row r="6" spans="1:27" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -6499,8 +6498,8 @@
       <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -6512,8 +6511,8 @@
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -6522,11 +6521,11 @@
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -6538,9 +6537,9 @@
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -6552,75 +6551,54 @@
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="64"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="64"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="64"/>
-    </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-    </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>10</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6761,9 +6739,6 @@
     <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
@@ -6781,7 +6756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -6797,90 +6772,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="64"/>
-    </row>
-    <row r="6" spans="1:27" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -6892,9 +6867,9 @@
       <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="29"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -6906,9 +6881,9 @@
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -6920,9 +6895,9 @@
       <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -6934,9 +6909,9 @@
       <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="29"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -6948,39 +6923,39 @@
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="29"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7162,550 +7137,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="64"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="64"/>
-    </row>
-    <row r="6" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="63"/>
+    </row>
+    <row r="6" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-    </row>
-    <row r="8" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-    </row>
-    <row r="9" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-    </row>
-    <row r="11" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-    </row>
-    <row r="12" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-    </row>
-    <row r="13" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-    </row>
-    <row r="15" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-    </row>
-    <row r="16" spans="1:24" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+    </row>
+    <row r="7" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="145"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+    </row>
+    <row r="8" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="145"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="145"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="145"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+    </row>
+    <row r="11" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="145"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="145"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+    </row>
+    <row r="13" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="145"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+    </row>
+    <row r="14" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="145"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+    </row>
+    <row r="15" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="145"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="146"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
     </row>
     <row r="21" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
     </row>
     <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="137" t="s">
+      <c r="A25" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="136"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="109"/>
+      <c r="B26" s="138"/>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="109"/>
+      <c r="B27" s="138"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="111"/>
+      <c r="B28" s="157"/>
     </row>
     <row r="29" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="31"/>
-    </row>
-    <row r="31" spans="1:24" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="32"/>
-    </row>
-    <row r="32" spans="1:24" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="32"/>
-    </row>
-    <row r="33" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="33"/>
-    </row>
-    <row r="34" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="33"/>
-    </row>
-    <row r="35" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="33"/>
-    </row>
-    <row r="36" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="33"/>
-    </row>
-    <row r="37" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="33"/>
-    </row>
-    <row r="38" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="33"/>
-    </row>
-    <row r="39" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="33"/>
-    </row>
-    <row r="40" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="33"/>
-    </row>
-    <row r="42" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
-      <c r="B42" s="33"/>
-    </row>
-    <row r="43" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="32"/>
-    </row>
-    <row r="44" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="32"/>
-    </row>
-    <row r="45" spans="1:2" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="122"/>
-      <c r="B45" s="30"/>
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="145"/>
+      <c r="B31" s="31"/>
+    </row>
+    <row r="32" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="145"/>
+      <c r="B32" s="31"/>
+    </row>
+    <row r="33" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="145"/>
+      <c r="B33" s="32"/>
+    </row>
+    <row r="34" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="145"/>
+      <c r="B34" s="32"/>
+    </row>
+    <row r="35" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="145"/>
+      <c r="B35" s="32"/>
+    </row>
+    <row r="36" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="145"/>
+      <c r="B36" s="32"/>
+    </row>
+    <row r="37" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="145"/>
+      <c r="B37" s="32"/>
+    </row>
+    <row r="38" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="145"/>
+      <c r="B38" s="32"/>
+    </row>
+    <row r="39" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="145"/>
+      <c r="B39" s="32"/>
+    </row>
+    <row r="40" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="145"/>
+      <c r="B40" s="32"/>
+    </row>
+    <row r="41" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="145"/>
+      <c r="B41" s="32"/>
+    </row>
+    <row r="42" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="145"/>
+      <c r="B42" s="32"/>
+    </row>
+    <row r="43" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="145"/>
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="145"/>
+      <c r="B44" s="31"/>
+    </row>
+    <row r="45" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="146"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="118"/>
-    </row>
-    <row r="47" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
-      <c r="B47" s="119"/>
+      <c r="B46" s="164"/>
+    </row>
+    <row r="47" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="159"/>
+      <c r="B47" s="165"/>
     </row>
     <row r="48" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="116"/>
-    </row>
-    <row r="49" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="113"/>
-      <c r="B49" s="117"/>
+      <c r="B48" s="162"/>
+    </row>
+    <row r="49" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="159"/>
+      <c r="B49" s="163"/>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="114"/>
-    </row>
-    <row r="51" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
-      <c r="B51" s="115"/>
+      <c r="B50" s="160"/>
+    </row>
+    <row r="51" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="159"/>
+      <c r="B51" s="161"/>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7833,6 +7808,15 @@
     <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A30:A45"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C1:C21"/>
@@ -7848,15 +7832,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A30:A45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7883,279 +7858,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="64"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:25" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A4" s="175"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="63"/>
+    </row>
+    <row r="5" spans="1:25" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-    </row>
-    <row r="6" spans="1:25" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" spans="1:25" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="159"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="63"/>
     </row>
     <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
     </row>
     <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
+      <c r="A10" s="177"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
     </row>
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="138"/>
+      <c r="B16" s="136"/>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="174"/>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="126"/>
+      <c r="B18" s="142"/>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="176"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="139"/>
-    </row>
-    <row r="21" spans="1:2" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
-      <c r="B21" s="140"/>
+      <c r="B20" s="178"/>
+    </row>
+    <row r="21" spans="1:2" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="159"/>
+      <c r="B21" s="179"/>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="148"/>
-    </row>
-    <row r="23" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
-      <c r="B23" s="149"/>
+      <c r="B22" s="166"/>
+    </row>
+    <row r="23" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="159"/>
+      <c r="B23" s="167"/>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="151"/>
-    </row>
-    <row r="25" spans="1:2" s="29" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="152"/>
+      <c r="B24" s="169"/>
+    </row>
+    <row r="25" spans="1:2" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="168"/>
+      <c r="B25" s="170"/>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="44"/>
-    </row>
-    <row r="27" spans="1:2" s="29" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="154"/>
-      <c r="B27" s="43"/>
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="172"/>
+      <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8276,11 +8251,14 @@
     <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C1:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8291,14 +8269,11 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8338,521 +8313,521 @@
   <sheetData>
     <row r="1" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="A5" s="33"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="27"/>
-      <c r="M9" s="23"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="26"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="M10" s="23"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="M11" s="23"/>
-      <c r="Q11" s="27"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="M11" s="22"/>
+      <c r="Q11" s="26"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="M12" s="23"/>
-      <c r="Q12" s="27"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="M12" s="22"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="27"/>
-      <c r="M13" s="23"/>
-      <c r="Q13" s="27"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="26"/>
+      <c r="M13" s="22"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <f>SUM(B3:B13)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="45" t="str">
+      <c r="C14" s="44" t="str">
         <f>IF(SUM(C3:C13)&gt;0,B14-SUM(C3:C13),"")</f>
         <v/>
       </c>
-      <c r="D14" s="45" t="str">
+      <c r="D14" s="44" t="str">
         <f>IF(SUM(D3:D13)&gt;0,C14-SUM(D3:D13),"")</f>
         <v/>
       </c>
-      <c r="E14" s="45" t="str">
+      <c r="E14" s="44" t="str">
         <f t="shared" ref="E14:Q14" si="0">IF(SUM(E3:E13)&gt;0,D14-SUM(E3:E13),"")</f>
         <v/>
       </c>
-      <c r="F14" s="45" t="str">
+      <c r="F14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="45" t="str">
+      <c r="G14" s="44" t="str">
         <f>IF(SUM(G3:G13)&gt;0,F14-SUM(G3:G13),"")</f>
         <v/>
       </c>
-      <c r="H14" s="45" t="str">
+      <c r="H14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="45" t="str">
+      <c r="I14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="45" t="str">
+      <c r="J14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="45" t="str">
+      <c r="K14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="45" t="str">
+      <c r="L14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="45" t="str">
+      <c r="M14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N14" s="45" t="str">
+      <c r="N14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O14" s="45" t="str">
+      <c r="O14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P14" s="45" t="str">
+      <c r="P14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q14" s="45" t="str">
+      <c r="Q14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <f>B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <f>B15-($B$15/COUNTA($C$2:$Q$2))</f>
         <v>0</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <f>C15-($B$15/COUNTA($C$2:$Q$2))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <f t="shared" ref="E15:Q15" si="1">D15-($B$15/COUNTA($C$2:$Q$2))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="27"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="26"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="27"/>
-      <c r="M31" s="23"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="26"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="M32" s="23"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="M33" s="23"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <f>SUM(B18:B33)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="45" t="str">
+      <c r="C34" s="44" t="str">
         <f>IF(SUM(C18:C33)&gt;0,B34-SUM(C18:C33),"")</f>
         <v/>
       </c>
-      <c r="D34" s="45" t="str">
+      <c r="D34" s="44" t="str">
         <f t="shared" ref="D34:Q34" si="2">IF(SUM(D18:D33)&gt;0,C34-SUM(D18:D33),"")</f>
         <v/>
       </c>
-      <c r="E34" s="45" t="str">
+      <c r="E34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F34" s="45" t="str">
+      <c r="F34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G34" s="45" t="str">
+      <c r="G34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H34" s="45" t="str">
+      <c r="H34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="45" t="str">
+      <c r="I34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J34" s="45" t="str">
+      <c r="J34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K34" s="45" t="str">
+      <c r="K34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L34" s="45" t="str">
+      <c r="L34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M34" s="45" t="str">
+      <c r="M34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N34" s="45" t="str">
+      <c r="N34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O34" s="45" t="str">
+      <c r="O34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P34" s="45" t="str">
+      <c r="P34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q34" s="45" t="str">
+      <c r="Q34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <f>B35-($B$34/COUNTA($C$17:$Q$17))</f>
         <v>0</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="25">
         <f t="shared" ref="D35:Q35" si="3">C35-($B$34/COUNTA($C$17:$Q$17))</f>
         <v>0</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="Q35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E962E6AE-524A-4042-8E00-F1000D1E37F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02A2C1-E7D1-49A2-B46F-6E3AEB98E927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="14640" windowHeight="13995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="14640" windowHeight="13995" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
   <si>
     <t>R</t>
   </si>
@@ -1315,6 +1315,71 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,56 +1398,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1399,24 +1429,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1429,53 +1441,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1484,16 +1484,55 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1506,15 +1545,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1539,56 +1569,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1601,17 +1592,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1953,49 +1953,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5803,103 +5803,103 @@
       <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="40"/>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:27" s="59" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="40"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="111"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:27" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="F6" s="122" t="s">
+      <c r="C6" s="107"/>
+      <c r="D6" s="129"/>
+      <c r="F6" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="126" t="s">
+      <c r="G6" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:27" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="59"/>
@@ -5948,45 +5948,45 @@
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="97" t="s">
+      <c r="E10" s="113"/>
+      <c r="F10" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="116" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="111"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -6007,35 +6007,35 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="122" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="111"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -6056,35 +6056,35 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="122" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="117"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -6114,87 +6114,87 @@
       <c r="C19" s="61"/>
       <c r="D19" s="62"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="126" t="s">
+      <c r="G20" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="94"/>
     </row>
     <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="119"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -6336,21 +6336,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B2:D3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:E15"/>
@@ -6367,16 +6362,21 @@
     <mergeCell ref="G2:I3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6388,7 +6388,7 @@
   <dimension ref="A1:AA172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6756,7 +6756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -7137,40 +7137,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="140"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="140"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="142"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
-      <c r="B5" s="144"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="63"/>
     </row>
     <row r="6" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="148" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="33"/>
@@ -7198,7 +7198,7 @@
       <c r="X6" s="15"/>
     </row>
     <row r="7" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="33"/>
       <c r="C7" s="63"/>
       <c r="D7" s="15"/>
@@ -7224,7 +7224,7 @@
       <c r="X7" s="15"/>
     </row>
     <row r="8" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="33"/>
       <c r="C8" s="63"/>
       <c r="D8" s="15"/>
@@ -7250,7 +7250,7 @@
       <c r="X8" s="15"/>
     </row>
     <row r="9" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="34"/>
       <c r="C9" s="63"/>
       <c r="D9" s="15"/>
@@ -7276,7 +7276,7 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="148"/>
       <c r="B10" s="33"/>
       <c r="C10" s="63"/>
       <c r="D10" s="15"/>
@@ -7302,7 +7302,7 @@
       <c r="X10" s="15"/>
     </row>
     <row r="11" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="33"/>
       <c r="C11" s="63"/>
       <c r="D11" s="15"/>
@@ -7328,7 +7328,7 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="33"/>
       <c r="C12" s="63"/>
       <c r="D12" s="15"/>
@@ -7354,7 +7354,7 @@
       <c r="X12" s="15"/>
     </row>
     <row r="13" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="33"/>
       <c r="C13" s="63"/>
       <c r="D13" s="15"/>
@@ -7380,7 +7380,7 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+      <c r="A14" s="148"/>
       <c r="B14" s="33"/>
       <c r="C14" s="63"/>
       <c r="D14" s="15"/>
@@ -7406,7 +7406,7 @@
       <c r="X14" s="15"/>
     </row>
     <row r="15" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="33"/>
       <c r="C15" s="63"/>
       <c r="D15" s="15"/>
@@ -7432,7 +7432,7 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="33"/>
       <c r="C16" s="63"/>
       <c r="D16" s="15"/>
@@ -7461,12 +7461,12 @@
       <c r="A17" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="148"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="149"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="63"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -7491,15 +7491,15 @@
       <c r="X18" s="28"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="152"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="63"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -7524,15 +7524,15 @@
       <c r="X20" s="28"/>
     </row>
     <row r="21" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="152"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="153"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -7559,28 +7559,28 @@
     <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="136"/>
+      <c r="B25" s="151"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="138"/>
+      <c r="B26" s="136"/>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="138"/>
+      <c r="B27" s="136"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="157"/>
+      <c r="B28" s="138"/>
     </row>
     <row r="29" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
@@ -7593,94 +7593,94 @@
       <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="145"/>
+      <c r="A31" s="148"/>
       <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="145"/>
+      <c r="A32" s="148"/>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
+      <c r="A33" s="148"/>
       <c r="B33" s="32"/>
     </row>
     <row r="34" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="145"/>
+      <c r="A34" s="148"/>
       <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="145"/>
+      <c r="A35" s="148"/>
       <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="145"/>
+      <c r="A36" s="148"/>
       <c r="B36" s="32"/>
     </row>
     <row r="37" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="145"/>
+      <c r="A37" s="148"/>
       <c r="B37" s="32"/>
     </row>
     <row r="38" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="145"/>
+      <c r="A38" s="148"/>
       <c r="B38" s="32"/>
     </row>
     <row r="39" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="145"/>
+      <c r="A39" s="148"/>
       <c r="B39" s="32"/>
     </row>
     <row r="40" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="145"/>
+      <c r="A40" s="148"/>
       <c r="B40" s="32"/>
     </row>
     <row r="41" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
+      <c r="A41" s="148"/>
       <c r="B41" s="32"/>
     </row>
     <row r="42" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="145"/>
+      <c r="A42" s="148"/>
       <c r="B42" s="32"/>
     </row>
     <row r="43" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
+      <c r="A43" s="148"/>
       <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
+      <c r="A44" s="148"/>
       <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="146"/>
+      <c r="A45" s="149"/>
       <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="158" t="s">
+      <c r="A46" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="164"/>
+      <c r="B46" s="145"/>
     </row>
     <row r="47" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="159"/>
-      <c r="B47" s="165"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="146"/>
     </row>
     <row r="48" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="158" t="s">
+      <c r="A48" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="162"/>
+      <c r="B48" s="143"/>
     </row>
     <row r="49" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="159"/>
-      <c r="B49" s="163"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="144"/>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="158" t="s">
+      <c r="A50" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="160"/>
+      <c r="B50" s="141"/>
     </row>
     <row r="51" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="159"/>
-      <c r="B51" s="161"/>
+      <c r="A51" s="140"/>
+      <c r="B51" s="142"/>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7808,15 +7808,6 @@
     <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A30:A45"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C1:C21"/>
@@ -7832,6 +7823,15 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A30:A45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7844,7 +7844,7 @@
   </sheetPr>
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -7858,36 +7858,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="171"/>
       <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="142"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
-      <c r="B4" s="176"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
       <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:25" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="180"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="63"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -7913,8 +7913,8 @@
       <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="1:25" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="181"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="63"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -7940,15 +7940,15 @@
       <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="160"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="63"/>
     </row>
     <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="63"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -7974,15 +7974,15 @@
       <c r="Y8" s="28"/>
     </row>
     <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="160"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
-      <c r="B10" s="161"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="63"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -8008,14 +8008,14 @@
       <c r="Y10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="164" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="41"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -8042,7 +8042,7 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="41"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -8071,65 +8071,65 @@
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="136"/>
+      <c r="B16" s="151"/>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="174"/>
+      <c r="B17" s="171"/>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="155"/>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="176"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="173"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="178"/>
+      <c r="B20" s="166"/>
     </row>
     <row r="21" spans="1:2" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
-      <c r="B21" s="179"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="167"/>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="158" t="s">
+      <c r="A22" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="166"/>
+      <c r="B22" s="175"/>
     </row>
     <row r="23" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
-      <c r="B23" s="167"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="176"/>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="169"/>
+      <c r="B24" s="178"/>
     </row>
     <row r="25" spans="1:2" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="168"/>
-      <c r="B25" s="170"/>
+      <c r="A25" s="177"/>
+      <c r="B25" s="179"/>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="180" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="43"/>
     </row>
     <row r="27" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
+      <c r="A27" s="181"/>
       <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8251,14 +8251,11 @@
     <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C1:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8269,11 +8266,14 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8298,8 +8298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8366,25 +8366,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="33" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="33" t="s">
+        <v>69</v>
+      </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="33" t="s">
+        <v>72</v>
+      </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="E7" s="26"/>
@@ -8500,64 +8510,63 @@
         <v>47</v>
       </c>
       <c r="B15" s="22">
-        <f>B14</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C15" s="25">
         <f>B15-($B$15/COUNTA($C$2:$Q$2))</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D15" s="25">
         <f>C15-($B$15/COUNTA($C$2:$Q$2))</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" ref="E15:Q15" si="1">D15-($B$15/COUNTA($C$2:$Q$2))</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="1"/>

--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02A2C1-E7D1-49A2-B46F-6E3AEB98E927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C32FC-3F22-4F28-8B86-AF700C4F7FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="14640" windowHeight="13995" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19200" windowHeight="5865" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
   <si>
     <t>R</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>PONTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition of Done:  </t>
   </si>
   <si>
     <t>Deborah</t>
@@ -433,6 +430,18 @@
   </si>
   <si>
     <t>Para facilitar a visualização do público interessado.</t>
+  </si>
+  <si>
+    <t>18/02/2021 - 23/02/2021</t>
+  </si>
+  <si>
+    <t>24/02/2021 - 01/03/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition of Done:  Tratamento e Dashboard </t>
+  </si>
+  <si>
+    <t>Objetivo da Sprint: Realizar o tratamento dos dados no GCP e a criação do Dashboard</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1285,6 +1294,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4231,34 +4243,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -4273,7 +4285,7 @@
       <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -4302,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -4310,14 +4322,14 @@
       <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5">
         <v>10</v>
@@ -4325,29 +4337,29 @@
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="63"/>
+        <v>67</v>
+      </c>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -4355,7 +4367,7 @@
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="63"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -4363,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5">
         <v>9</v>
@@ -4371,14 +4383,14 @@
       <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="63"/>
+      <c r="E10" s="64"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5">
         <v>9</v>
@@ -4386,14 +4398,14 @@
       <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="63"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5">
         <v>10</v>
@@ -4401,35 +4413,35 @@
       <c r="D12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="63"/>
+        <v>77</v>
+      </c>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4437,7 +4449,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="5">
         <v>7</v>
@@ -4594,7 +4606,7 @@
   <dimension ref="A1:AL269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,13 +4618,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
@@ -4622,10 +4634,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>60</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>50</v>
@@ -4638,10 +4650,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="73">
+      <c r="B3" s="74">
         <v>1</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="71">
         <v>1</v>
       </c>
       <c r="D3" s="47"/>
@@ -4655,8 +4667,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="51"/>
@@ -4668,7 +4680,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="53">
         <v>2</v>
       </c>
@@ -5781,7 +5793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -5800,106 +5812,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="40"/>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:27" s="59" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="101"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="120" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G4" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-    </row>
-    <row r="3" spans="1:27" s="59" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="122" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="1:27" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+    </row>
+    <row r="6" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-    </row>
-    <row r="5" spans="1:27" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="127"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-    </row>
-    <row r="6" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="128" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="130"/>
+      <c r="F6" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="129"/>
-      <c r="F6" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:27" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="59"/>
@@ -5942,51 +5954,51 @@
       <c r="AA9" s="59"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="95" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
+      <c r="G11" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -6007,35 +6019,35 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
+      <c r="B13" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -6056,35 +6068,35 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="82" t="s">
+      <c r="B15" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -6107,94 +6119,94 @@
     <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="98"/>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="92" t="s">
+      <c r="G20" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+    </row>
+    <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G22" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
-    </row>
-    <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="94"/>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="105" t="s">
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+    </row>
+    <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="101"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+    </row>
+    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-    </row>
-    <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -6388,7 +6400,7 @@
   <dimension ref="A1:AA172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6403,53 +6415,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="63"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -6464,7 +6476,7 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -6493,52 +6505,60 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="60">
+        <v>44241</v>
+      </c>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="60">
+        <v>44244</v>
+      </c>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="63"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="64"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="64"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6546,13 +6566,15 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -6561,7 +6583,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -6570,7 +6592,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -6579,7 +6601,7 @@
       <c r="B14" s="21"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6756,7 +6778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA160"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -6772,53 +6794,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -6833,7 +6855,7 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -6862,13 +6884,15 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="60">
+        <v>44250</v>
+      </c>
+      <c r="E7" s="64"/>
       <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6876,13 +6900,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="60">
+        <v>44250</v>
+      </c>
+      <c r="E8" s="64"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6890,13 +6916,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="63"/>
+        <v>77</v>
+      </c>
+      <c r="D9" s="60">
+        <v>44250</v>
+      </c>
+      <c r="E9" s="64"/>
       <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6904,13 +6932,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="63"/>
+        <v>67</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="64"/>
       <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6918,13 +6948,15 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="64"/>
       <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6934,7 +6966,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="36"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -6944,7 +6976,7 @@
       <c r="B13" s="27"/>
       <c r="C13" s="36"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6954,7 +6986,7 @@
       <c r="B14" s="27"/>
       <c r="C14" s="36"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7123,7 +7155,7 @@
   </sheetPr>
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -7137,44 +7169,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="153" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="149" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="63"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -7198,9 +7230,9 @@
       <c r="X6" s="15"/>
     </row>
     <row r="7" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="63"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -7224,9 +7256,9 @@
       <c r="X7" s="15"/>
     </row>
     <row r="8" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -7250,9 +7282,9 @@
       <c r="X8" s="15"/>
     </row>
     <row r="9" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -7276,9 +7308,9 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="148"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -7302,9 +7334,9 @@
       <c r="X10" s="15"/>
     </row>
     <row r="11" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="148"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -7328,9 +7360,9 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -7354,9 +7386,9 @@
       <c r="X12" s="15"/>
     </row>
     <row r="13" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -7380,9 +7412,9 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="33"/>
-      <c r="C14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -7406,9 +7438,9 @@
       <c r="X14" s="15"/>
     </row>
     <row r="15" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="148"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -7432,9 +7464,9 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="149"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="33"/>
-      <c r="C16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -7458,16 +7490,16 @@
       <c r="X16" s="15"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="149"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -7491,16 +7523,16 @@
       <c r="X18" s="28"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -7524,15 +7556,15 @@
       <c r="X20" s="28"/>
     </row>
     <row r="21" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
-      <c r="B22" s="163"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -7559,128 +7591,128 @@
     <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="151"/>
+      <c r="B25" s="152"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="135" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="136"/>
+      <c r="A26" s="136" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="137"/>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="136"/>
+      <c r="B27" s="137"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="138"/>
+      <c r="B28" s="139"/>
     </row>
     <row r="29" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
     </row>
     <row r="30" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="148" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
+      <c r="A31" s="149"/>
       <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
+      <c r="A32" s="149"/>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="148"/>
+      <c r="A33" s="149"/>
       <c r="B33" s="32"/>
     </row>
     <row r="34" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148"/>
+      <c r="A34" s="149"/>
       <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="148"/>
+      <c r="A35" s="149"/>
       <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="148"/>
+      <c r="A36" s="149"/>
       <c r="B36" s="32"/>
     </row>
     <row r="37" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="148"/>
+      <c r="A37" s="149"/>
       <c r="B37" s="32"/>
     </row>
     <row r="38" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="148"/>
+      <c r="A38" s="149"/>
       <c r="B38" s="32"/>
     </row>
     <row r="39" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="148"/>
+      <c r="A39" s="149"/>
       <c r="B39" s="32"/>
     </row>
     <row r="40" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="148"/>
+      <c r="A40" s="149"/>
       <c r="B40" s="32"/>
     </row>
     <row r="41" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="148"/>
+      <c r="A41" s="149"/>
       <c r="B41" s="32"/>
     </row>
     <row r="42" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="148"/>
+      <c r="A42" s="149"/>
       <c r="B42" s="32"/>
     </row>
     <row r="43" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="148"/>
+      <c r="A43" s="149"/>
       <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="148"/>
+      <c r="A44" s="149"/>
       <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="149"/>
+      <c r="A45" s="150"/>
       <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="145"/>
+      <c r="B46" s="146"/>
     </row>
     <row r="47" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="140"/>
-      <c r="B47" s="146"/>
+      <c r="A47" s="141"/>
+      <c r="B47" s="147"/>
     </row>
     <row r="48" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="143"/>
+      <c r="B48" s="144"/>
     </row>
     <row r="49" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
-      <c r="B49" s="144"/>
+      <c r="A49" s="141"/>
+      <c r="B49" s="145"/>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="139" t="s">
+      <c r="A50" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="141"/>
+      <c r="B50" s="142"/>
     </row>
     <row r="51" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="140"/>
-      <c r="B51" s="142"/>
+      <c r="A51" s="141"/>
+      <c r="B51" s="143"/>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7844,7 +7876,7 @@
   </sheetPr>
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -7858,37 +7890,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="171" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="172"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:25" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -7913,9 +7945,9 @@
       <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="1:25" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -7940,16 +7972,16 @@
       <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="64"/>
     </row>
     <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -7974,16 +8006,16 @@
       <c r="Y8" s="28"/>
     </row>
     <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -8008,14 +8040,14 @@
       <c r="Y10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="165" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="41"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -8042,7 +8074,7 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
+      <c r="A13" s="166"/>
       <c r="B13" s="41"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -8071,65 +8103,65 @@
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="151"/>
+      <c r="B16" s="152"/>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="170" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="171"/>
+      <c r="A17" s="171" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="172"/>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="155"/>
+      <c r="B18" s="156"/>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="166"/>
+      <c r="B20" s="167"/>
     </row>
     <row r="21" spans="1:2" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
-      <c r="B21" s="167"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="168"/>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139" t="s">
+      <c r="A22" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="175"/>
+      <c r="B22" s="176"/>
     </row>
     <row r="23" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="176"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="177"/>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="178"/>
+      <c r="B24" s="179"/>
     </row>
     <row r="25" spans="1:2" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="177"/>
-      <c r="B25" s="179"/>
+      <c r="A25" s="178"/>
+      <c r="B25" s="180"/>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="181" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="43"/>
     </row>
     <row r="27" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8298,7 +8330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -8367,19 +8399,19 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -8387,13 +8419,13 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>

--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C32FC-3F22-4F28-8B86-AF700C4F7FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B227C-6BEB-43AB-B697-EBC908A5A69A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19200" windowHeight="5865" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19200" windowHeight="5865" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>R</t>
   </si>
@@ -1327,6 +1327,85 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1345,12 +1424,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,28 +1475,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,103 +1489,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1496,55 +1496,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1557,6 +1518,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,17 +1551,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1604,26 +1613,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5815,103 +5815,103 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="40"/>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="113"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:27" s="59" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="40"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
     </row>
     <row r="4" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:27" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
     </row>
     <row r="6" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="130"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="F6" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
     </row>
     <row r="7" spans="1:27" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="95"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="59"/>
@@ -5960,45 +5960,45 @@
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="63"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="96" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="91" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -6019,35 +6019,35 @@
       <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="83" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -6068,35 +6068,35 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="83" t="s">
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -6126,87 +6126,87 @@
       <c r="C19" s="62"/>
       <c r="D19" s="63"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="98"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="95"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128"/>
     </row>
     <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
     </row>
     <row r="25" spans="1:9" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -6348,16 +6348,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D25"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:E15"/>
@@ -6374,21 +6379,16 @@
     <mergeCell ref="G2:I3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6779,7 +6779,7 @@
   <dimension ref="A1:AA160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,40 +7169,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="154"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="156"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="158"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="146" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="33"/>
@@ -7230,7 +7230,7 @@
       <c r="X6" s="15"/>
     </row>
     <row r="7" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="33"/>
       <c r="C7" s="64"/>
       <c r="D7" s="15"/>
@@ -7256,7 +7256,7 @@
       <c r="X7" s="15"/>
     </row>
     <row r="8" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="33"/>
       <c r="C8" s="64"/>
       <c r="D8" s="15"/>
@@ -7282,7 +7282,7 @@
       <c r="X8" s="15"/>
     </row>
     <row r="9" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="34"/>
       <c r="C9" s="64"/>
       <c r="D9" s="15"/>
@@ -7308,7 +7308,7 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="33"/>
       <c r="C10" s="64"/>
       <c r="D10" s="15"/>
@@ -7334,7 +7334,7 @@
       <c r="X10" s="15"/>
     </row>
     <row r="11" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="149"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="33"/>
       <c r="C11" s="64"/>
       <c r="D11" s="15"/>
@@ -7360,7 +7360,7 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="33"/>
       <c r="C12" s="64"/>
       <c r="D12" s="15"/>
@@ -7386,7 +7386,7 @@
       <c r="X12" s="15"/>
     </row>
     <row r="13" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="149"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="33"/>
       <c r="C13" s="64"/>
       <c r="D13" s="15"/>
@@ -7412,7 +7412,7 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="149"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="33"/>
       <c r="C14" s="64"/>
       <c r="D14" s="15"/>
@@ -7438,7 +7438,7 @@
       <c r="X14" s="15"/>
     </row>
     <row r="15" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="149"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="33"/>
       <c r="C15" s="64"/>
       <c r="D15" s="15"/>
@@ -7464,7 +7464,7 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="33"/>
       <c r="C16" s="64"/>
       <c r="D16" s="15"/>
@@ -7493,12 +7493,12 @@
       <c r="A17" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="159"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="160"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="64"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -7523,15 +7523,15 @@
       <c r="X18" s="28"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="163"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
-      <c r="B20" s="164"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="64"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -7556,15 +7556,15 @@
       <c r="X20" s="28"/>
     </row>
     <row r="21" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="163"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="166"/>
-      <c r="B22" s="164"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="154"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -7591,28 +7591,28 @@
     <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="152"/>
+      <c r="B25" s="137"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="137"/>
+      <c r="B26" s="139"/>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="137"/>
+      <c r="B27" s="139"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="139"/>
+      <c r="B28" s="158"/>
     </row>
     <row r="29" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
@@ -7625,94 +7625,94 @@
       <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="149"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="149"/>
+      <c r="A32" s="146"/>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="149"/>
+      <c r="A33" s="146"/>
       <c r="B33" s="32"/>
     </row>
     <row r="34" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="149"/>
+      <c r="A34" s="146"/>
       <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="149"/>
+      <c r="A35" s="146"/>
       <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="149"/>
+      <c r="A36" s="146"/>
       <c r="B36" s="32"/>
     </row>
     <row r="37" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="149"/>
+      <c r="A37" s="146"/>
       <c r="B37" s="32"/>
     </row>
     <row r="38" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="149"/>
+      <c r="A38" s="146"/>
       <c r="B38" s="32"/>
     </row>
     <row r="39" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="149"/>
+      <c r="A39" s="146"/>
       <c r="B39" s="32"/>
     </row>
     <row r="40" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="149"/>
+      <c r="A40" s="146"/>
       <c r="B40" s="32"/>
     </row>
     <row r="41" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="149"/>
+      <c r="A41" s="146"/>
       <c r="B41" s="32"/>
     </row>
     <row r="42" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="149"/>
+      <c r="A42" s="146"/>
       <c r="B42" s="32"/>
     </row>
     <row r="43" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="149"/>
+      <c r="A43" s="146"/>
       <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="149"/>
+      <c r="A44" s="146"/>
       <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="150"/>
+      <c r="A45" s="147"/>
       <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="140" t="s">
+      <c r="A46" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="146"/>
+      <c r="B46" s="165"/>
     </row>
     <row r="47" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="141"/>
-      <c r="B47" s="147"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="166"/>
     </row>
     <row r="48" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="144"/>
+      <c r="B48" s="163"/>
     </row>
     <row r="49" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="141"/>
-      <c r="B49" s="145"/>
+      <c r="A49" s="160"/>
+      <c r="B49" s="164"/>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="142"/>
+      <c r="B50" s="161"/>
     </row>
     <row r="51" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="141"/>
-      <c r="B51" s="143"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="162"/>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7840,6 +7840,15 @@
     <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A30:A45"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C1:C21"/>
@@ -7855,15 +7864,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A30:A45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7890,36 +7890,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="172"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="156"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="174"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:25" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="169"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="64"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -7945,8 +7945,8 @@
       <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="1:25" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="141"/>
-      <c r="B6" s="170"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="64"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -7972,15 +7972,15 @@
       <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="64"/>
     </row>
     <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="64"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -8006,15 +8006,15 @@
       <c r="Y8" s="28"/>
     </row>
     <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="142"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="175"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="64"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -8040,14 +8040,14 @@
       <c r="Y10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="155" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="41"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -8074,7 +8074,7 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="166"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="41"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -8103,65 +8103,65 @@
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="152"/>
+      <c r="B16" s="137"/>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="172"/>
+      <c r="B17" s="175"/>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="156"/>
+      <c r="B18" s="143"/>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
+      <c r="A19" s="176"/>
+      <c r="B19" s="177"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="167"/>
+      <c r="B20" s="179"/>
     </row>
     <row r="21" spans="1:2" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="168"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="180"/>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="167"/>
     </row>
     <row r="23" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="177"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="168"/>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="179"/>
+      <c r="B24" s="170"/>
     </row>
     <row r="25" spans="1:2" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="178"/>
-      <c r="B25" s="180"/>
+      <c r="A25" s="169"/>
+      <c r="B25" s="171"/>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="172" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="43"/>
     </row>
     <row r="27" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="182"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8283,11 +8283,14 @@
     <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C1:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8298,14 +8301,11 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8331,7 +8331,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8660,22 +8660,32 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="33" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="34" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="B21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">

--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B227C-6BEB-43AB-B697-EBC908A5A69A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3D4E14-A1D1-4D1E-94E1-13E333AF94A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19200" windowHeight="5865" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="18250" windowHeight="6440" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
   <si>
     <t>R</t>
   </si>
@@ -442,6 +442,60 @@
   </si>
   <si>
     <t>Objetivo da Sprint: Realizar o tratamento dos dados no GCP e a criação do Dashboard</t>
+  </si>
+  <si>
+    <t>Realizar a conversão da base de dados via Docker</t>
+  </si>
+  <si>
+    <t>1- Os dados estavam com acesso privado; 2- O tipo de formato da base (Dbc); 3- A IDE (Tabwin) defasada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Acesso disponibilizado para a base; 2- Instalar uma imagem do docker para realizar a conversão; 3- Usando IDE (Docker, Python) mais modernas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contato com o psicologo da empresa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Dificuldade no carregamento das tabelas Dim e Fato no Power Query; 2 - Dificuldade com um filtro avançado </t>
+  </si>
+  <si>
+    <t>1- Foi carregado uma tabela de cada vez; 2 - Realizando pesquisas na internet.</t>
+  </si>
+  <si>
+    <t>Foram encontradas dificuldades na conversão do formato da base de dados do DATASUS, pois ela é fornecida compactada no formato .dbc e a IDE DATASUS e defasada quando se trata de conversao de varios arquivos simutaneamente.</t>
+  </si>
+  <si>
+    <t>A falta de conhecimento com o Github, para o uso de arquivos compartilhados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Será implementado as tabelas via BigQuery e o Dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO aceitou as historias do usúario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O código Jupyter foi refeito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testes funcionais aprovados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dificuldade na importação das bases para o Power Bi, pois não aceitava subir todos os arquivos do BigQuery de uma vez. </t>
+  </si>
+  <si>
+    <t>Aprofundar o conhecimento na plataforma Power Bi</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Ajuste pontuais nas tabelas importadas</t>
+  </si>
+  <si>
+    <t>Criação do Layout do Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste </t>
   </si>
 </sst>
 </file>
@@ -581,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1153,6 +1207,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1215,9 +1284,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,30 +1327,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,6 +1344,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,52 +1378,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1384,101 +1420,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,6 +1443,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1496,16 +1547,55 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1518,15 +1608,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1551,56 +1632,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1613,18 +1649,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1816,54 +1881,54 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Planej Grafico'!$B$14:$Q$14</c:f>
+              <c:f>'Planej Grafico'!$B$8:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1960,57 +2025,57 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Planej Grafico'!$B$15:$Q$15</c:f>
+              <c:f>'Planej Grafico'!$B$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>360</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>312</c:v>
+                  <c:v>62.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288</c:v>
+                  <c:v>57.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>264</c:v>
+                  <c:v>52.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>48.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>216</c:v>
+                  <c:v>43.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>192</c:v>
+                  <c:v>38.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>33.600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144</c:v>
+                  <c:v>28.800000000000022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120</c:v>
+                  <c:v>24.000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96</c:v>
+                  <c:v>19.200000000000021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72</c:v>
+                  <c:v>14.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>9.6000000000000192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>4.8000000000000194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.9539925233402755E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,56 +2464,32 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Planej Grafico'!$B$34:$Q$34</c:f>
+              <c:f>'Planej Grafico'!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2543,57 +2584,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Planej Grafico'!$B$35:$Q$35</c:f>
+              <c:f>'Planej Grafico'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>31.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>22.285714285714278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>17.857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>13.428571428571418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8.9999999999999893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,48 +4248,48 @@
       <selection activeCell="D11" sqref="D11:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="2" customWidth="1"/>
-    <col min="6" max="27" width="14.42578125" style="2"/>
-    <col min="28" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" style="2" customWidth="1"/>
+    <col min="6" max="27" width="14.453125" style="2"/>
+    <col min="28" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="64"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="64"/>
-    </row>
-    <row r="5" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:27" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4285,7 +4302,7 @@
       <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="64"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -4309,7 +4326,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4322,9 +4339,9 @@
       <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="64"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -4337,9 +4354,9 @@
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -4352,9 +4369,9 @@
       <c r="D8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="64"/>
-    </row>
-    <row r="9" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:27" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -4367,10 +4384,10 @@
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -4383,9 +4400,9 @@
       <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="64"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4398,9 +4415,9 @@
       <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -4413,9 +4430,9 @@
       <c r="D12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -4428,9 +4445,9 @@
       <c r="D13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -4444,7 +4461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -4458,7 +4475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -4466,129 +4483,129 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
@@ -4606,1174 +4623,1186 @@
   <dimension ref="A1:AL269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="3" width="11.42578125" style="20" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="38" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.1796875" style="10"/>
+    <col min="2" max="3" width="11.453125" style="20" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="38" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="74">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="68">
         <v>1</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="65">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="50"/>
-      <c r="H3" s="46" t="s">
+      <c r="D3" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="51"/>
-      <c r="H4" s="46" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="69"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="177"/>
+      <c r="H4" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="76"/>
-      <c r="C5" s="53">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="70"/>
+      <c r="C5" s="48">
         <v>2</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="178" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="52"/>
-      <c r="H6" s="46" t="s">
+      <c r="F6" s="47"/>
+      <c r="H6" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="45">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="45">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
     </row>
-    <row r="37" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
     </row>
-    <row r="43" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
     </row>
-    <row r="44" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
     </row>
-    <row r="45" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
     </row>
-    <row r="47" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
     </row>
-    <row r="49" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
     </row>
-    <row r="50" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
     </row>
-    <row r="51" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
     </row>
-    <row r="53" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
     </row>
-    <row r="54" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
     </row>
-    <row r="55" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
     </row>
-    <row r="56" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
     </row>
-    <row r="57" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
     </row>
-    <row r="58" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
     </row>
-    <row r="59" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
     </row>
-    <row r="60" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
     </row>
-    <row r="62" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
     </row>
-    <row r="63" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
     </row>
-    <row r="64" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
     </row>
-    <row r="66" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
     </row>
-    <row r="70" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
     </row>
-    <row r="71" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
     </row>
-    <row r="73" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
     </row>
-    <row r="74" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
     </row>
-    <row r="75" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
     </row>
-    <row r="76" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
     </row>
-    <row r="77" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
     </row>
-    <row r="78" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
     </row>
-    <row r="79" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
     </row>
-    <row r="80" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
     </row>
-    <row r="81" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
     </row>
-    <row r="82" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
     </row>
-    <row r="83" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
     </row>
-    <row r="84" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
     </row>
-    <row r="85" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
     </row>
-    <row r="86" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
     </row>
-    <row r="87" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
     </row>
-    <row r="88" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
     </row>
-    <row r="89" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
     </row>
-    <row r="90" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
     </row>
-    <row r="91" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
     </row>
-    <row r="92" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
     </row>
-    <row r="93" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
     </row>
-    <row r="94" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
     </row>
-    <row r="95" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
     </row>
-    <row r="96" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
     </row>
-    <row r="97" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
     </row>
-    <row r="98" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
     </row>
-    <row r="99" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
     </row>
-    <row r="100" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
     </row>
-    <row r="101" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
     </row>
-    <row r="102" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
     </row>
-    <row r="103" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
     </row>
-    <row r="104" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
     </row>
-    <row r="105" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
     </row>
-    <row r="106" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
     </row>
-    <row r="107" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
     </row>
-    <row r="108" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
     </row>
-    <row r="109" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
     </row>
-    <row r="110" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
     </row>
-    <row r="111" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
     </row>
-    <row r="112" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
     </row>
-    <row r="113" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
     </row>
-    <row r="114" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
     </row>
-    <row r="115" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
     </row>
-    <row r="116" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
     </row>
-    <row r="117" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
     </row>
-    <row r="118" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
     </row>
-    <row r="119" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
     </row>
-    <row r="120" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
     </row>
-    <row r="121" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
     </row>
-    <row r="122" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
     </row>
-    <row r="123" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
     </row>
-    <row r="128" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
     </row>
-    <row r="129" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
     </row>
-    <row r="130" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
     </row>
-    <row r="131" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
     </row>
-    <row r="132" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
     </row>
-    <row r="133" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
     </row>
-    <row r="134" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
     </row>
-    <row r="135" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
     </row>
-    <row r="136" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
     </row>
-    <row r="137" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
     </row>
-    <row r="138" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
     </row>
-    <row r="139" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
     </row>
-    <row r="140" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
     </row>
-    <row r="141" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
     </row>
-    <row r="142" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
     </row>
-    <row r="143" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
     </row>
-    <row r="144" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
     </row>
-    <row r="145" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
     </row>
-    <row r="146" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
     </row>
-    <row r="147" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
     </row>
-    <row r="148" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
     </row>
-    <row r="149" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
     </row>
-    <row r="150" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
     </row>
-    <row r="151" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
     </row>
-    <row r="152" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
     </row>
-    <row r="153" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
     </row>
-    <row r="154" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
     </row>
-    <row r="155" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
     </row>
-    <row r="157" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
     </row>
-    <row r="158" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
     </row>
-    <row r="159" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
     </row>
-    <row r="160" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
     </row>
-    <row r="161" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
     </row>
-    <row r="162" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
     </row>
-    <row r="163" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
     </row>
-    <row r="164" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
     </row>
-    <row r="165" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
     </row>
-    <row r="166" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
     </row>
-    <row r="167" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
     </row>
-    <row r="168" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
     </row>
-    <row r="169" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
     </row>
-    <row r="170" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
     </row>
-    <row r="171" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
     </row>
-    <row r="172" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
     </row>
-    <row r="173" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
     </row>
-    <row r="174" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
     </row>
-    <row r="175" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
     </row>
-    <row r="176" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
     </row>
-    <row r="177" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
     </row>
-    <row r="178" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
     </row>
-    <row r="179" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
     </row>
-    <row r="180" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
     </row>
-    <row r="181" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
     </row>
-    <row r="182" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
     </row>
-    <row r="183" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
     </row>
-    <row r="184" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
     </row>
-    <row r="185" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
     </row>
-    <row r="186" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
     </row>
-    <row r="187" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
     </row>
-    <row r="188" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
     </row>
-    <row r="189" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
     </row>
-    <row r="190" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
     </row>
-    <row r="191" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
     </row>
-    <row r="192" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
     </row>
-    <row r="193" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
     </row>
-    <row r="194" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
     </row>
-    <row r="195" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
     </row>
-    <row r="196" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
     </row>
-    <row r="197" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
     </row>
-    <row r="198" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
     </row>
-    <row r="199" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
     </row>
-    <row r="200" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
     </row>
-    <row r="201" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
     </row>
-    <row r="202" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
     </row>
-    <row r="203" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
     </row>
-    <row r="204" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
     </row>
-    <row r="205" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
     </row>
-    <row r="206" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
     </row>
-    <row r="207" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
     </row>
-    <row r="208" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
     </row>
-    <row r="209" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
     </row>
-    <row r="210" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
     </row>
-    <row r="211" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
     </row>
-    <row r="212" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
     </row>
-    <row r="213" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
     </row>
-    <row r="214" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
     </row>
-    <row r="215" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
     </row>
-    <row r="216" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
     </row>
-    <row r="217" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
     </row>
-    <row r="218" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
     </row>
-    <row r="219" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
     </row>
-    <row r="220" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
     </row>
-    <row r="221" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
     </row>
-    <row r="222" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
     </row>
-    <row r="223" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
     </row>
-    <row r="224" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
     </row>
-    <row r="225" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
     </row>
-    <row r="226" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
     </row>
-    <row r="227" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
     </row>
-    <row r="228" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
     </row>
-    <row r="229" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
     </row>
-    <row r="230" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
     </row>
-    <row r="231" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
     </row>
-    <row r="232" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
     </row>
-    <row r="233" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
     </row>
-    <row r="234" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
     </row>
-    <row r="235" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
     </row>
-    <row r="236" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
     </row>
-    <row r="237" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
     </row>
-    <row r="238" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
     </row>
-    <row r="239" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
     </row>
-    <row r="240" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
     </row>
-    <row r="241" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
     </row>
-    <row r="242" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
     </row>
-    <row r="243" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
     </row>
-    <row r="244" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
     </row>
-    <row r="245" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
     </row>
-    <row r="246" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
     </row>
-    <row r="247" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
     </row>
-    <row r="248" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
     </row>
-    <row r="249" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
     </row>
-    <row r="250" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
     </row>
-    <row r="251" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
     </row>
-    <row r="252" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
     </row>
-    <row r="253" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
     </row>
-    <row r="254" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
     </row>
-    <row r="255" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
     </row>
-    <row r="256" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
     </row>
-    <row r="257" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
     </row>
-    <row r="258" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
     </row>
-    <row r="259" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
     </row>
-    <row r="260" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
     </row>
-    <row r="261" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
     </row>
-    <row r="262" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
     </row>
-    <row r="263" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
     </row>
-    <row r="264" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
     </row>
-    <row r="265" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
     </row>
-    <row r="266" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B267" s="20"/>
       <c r="C267" s="20"/>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B268" s="20"/>
       <c r="C268" s="20"/>
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B269" s="20"/>
       <c r="C269" s="20"/>
       <c r="D269"/>
@@ -5797,208 +5826,208 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="8" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="27" width="14.42578125" style="8"/>
-    <col min="28" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" style="8" customWidth="1"/>
+    <col min="6" max="8" width="17.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="1" customWidth="1"/>
+    <col min="11" max="27" width="14.453125" style="8"/>
+    <col min="28" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:27" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="98" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
-    </row>
-    <row r="2" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="122" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
-    </row>
-    <row r="3" spans="1:27" s="59" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109"/>
-    </row>
-    <row r="4" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+    </row>
+    <row r="3" spans="1:27" s="52" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="95"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+    </row>
+    <row r="4" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="122" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-    </row>
-    <row r="5" spans="1:27" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
-    </row>
-    <row r="6" spans="1:27" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+    </row>
+    <row r="5" spans="1:27" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="95"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="76"/>
+    </row>
+    <row r="6" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="F6" s="120" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="124"/>
+      <c r="F6" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-    </row>
-    <row r="7" spans="1:27" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
+    </row>
+    <row r="7" spans="1:27" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="101"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="129" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="114" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
+    <row r="12" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="95"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -6018,36 +6047,36 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="120" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
+    <row r="14" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="95"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -6067,36 +6096,36 @@
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="120" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="113"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="101"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -6116,231 +6145,231 @@
       <c r="Z16" s="28"/>
       <c r="AA16" s="28"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="129" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+    </row>
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="128" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="124" t="s">
+      <c r="G20" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
-    </row>
-    <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
+    </row>
+    <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="95"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+    </row>
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="114" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="125" t="s">
+      <c r="G22" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
-    </row>
-    <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+    </row>
+    <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="95"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-    </row>
-    <row r="25" spans="1:9" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="119"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="101"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -6348,21 +6377,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B2:D3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:E15"/>
@@ -6379,16 +6403,21 @@
     <mergeCell ref="G2:I3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6400,70 +6429,70 @@
   <dimension ref="A1:AA172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="2" customWidth="1"/>
-    <col min="6" max="27" width="14.42578125" style="2"/>
-    <col min="28" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" style="2" customWidth="1"/>
+    <col min="6" max="27" width="14.453125" style="2"/>
+    <col min="28" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+    <row r="4" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="64"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -6476,7 +6505,7 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -6500,7 +6529,7 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -6510,12 +6539,12 @@
       <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="53">
         <v>44241</v>
       </c>
-      <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -6525,12 +6554,12 @@
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="53">
         <v>44244</v>
       </c>
-      <c r="E8" s="64"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -6538,229 +6567,235 @@
         <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="64"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="64"/>
-    </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
@@ -6779,70 +6814,70 @@
   <dimension ref="A1:AA160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B7:B11"/>
+      <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="2" customWidth="1"/>
-    <col min="6" max="27" width="14.42578125" style="2"/>
-    <col min="28" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" style="2" customWidth="1"/>
+    <col min="6" max="27" width="14.453125" style="2"/>
+    <col min="28" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+    <row r="4" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="64"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -6855,7 +6890,7 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -6879,7 +6914,7 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -6889,13 +6924,13 @@
       <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="53">
         <v>44250</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -6905,13 +6940,13 @@
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="53">
         <v>44250</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -6921,13 +6956,13 @@
       <c r="C9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="53">
         <v>44250</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -6937,13 +6972,13 @@
       <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -6953,188 +6988,188 @@
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="64"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="64"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="64"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
@@ -7153,60 +7188,62 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:X175"/>
+  <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="124" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="2" customWidth="1"/>
-    <col min="4" max="24" width="14.42578125" style="2"/>
-    <col min="25" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="42.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="134.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="2" customWidth="1"/>
+    <col min="4" max="24" width="14.453125" style="2"/>
+    <col min="25" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="64"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="64"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="58"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="64"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="144"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="64"/>
-    </row>
-    <row r="6" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="58"/>
+    </row>
+    <row r="6" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="58"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -7229,10 +7266,12 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="143"/>
+      <c r="B7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="58"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -7255,10 +7294,12 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="64"/>
+    <row r="8" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="143"/>
+      <c r="B8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="58"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -7281,10 +7322,12 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="64"/>
+    <row r="9" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="143"/>
+      <c r="B9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="58"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -7307,10 +7350,12 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="64"/>
+    <row r="10" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="143"/>
+      <c r="B10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="58"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -7333,10 +7378,12 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
     </row>
-    <row r="11" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="64"/>
+    <row r="11" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="143"/>
+      <c r="B11" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="58"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -7359,511 +7406,357 @@
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
     </row>
-    <row r="12" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-    </row>
-    <row r="13" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-    </row>
-    <row r="14" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-    </row>
-    <row r="15" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-    </row>
-    <row r="16" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="148" t="s">
+    <row r="12" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="64"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151" t="s">
+      <c r="B12" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="58"/>
+    </row>
+    <row r="13" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="144"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+    </row>
+    <row r="14" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="64"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155" t="s">
+      <c r="B14" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="58"/>
+    </row>
+    <row r="15" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="156"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+    </row>
+    <row r="16" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="153"/>
-      <c r="C21" s="64"/>
-    </row>
-    <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-    </row>
-    <row r="23" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
+      <c r="B16" s="157"/>
+      <c r="C16" s="58"/>
+    </row>
+    <row r="17" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="160"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+    </row>
+    <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:24" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="137"/>
-    </row>
-    <row r="26" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="138" t="s">
+      <c r="B20" s="146"/>
+    </row>
+    <row r="21" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="139"/>
-    </row>
-    <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="138" t="s">
+      <c r="B21" s="131"/>
+    </row>
+    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="139"/>
-    </row>
-    <row r="28" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="157" t="s">
+      <c r="B22" s="131"/>
+    </row>
+    <row r="23" spans="1:24" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="158"/>
-    </row>
-    <row r="29" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="148" t="s">
+      <c r="B23" s="133"/>
+    </row>
+    <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="30"/>
-    </row>
-    <row r="31" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
-      <c r="B31" s="31"/>
-    </row>
-    <row r="32" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="146"/>
-      <c r="B32" s="31"/>
-    </row>
-    <row r="33" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
-      <c r="B33" s="32"/>
-    </row>
-    <row r="34" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
-      <c r="B34" s="32"/>
-    </row>
-    <row r="35" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146"/>
-      <c r="B35" s="32"/>
-    </row>
-    <row r="36" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="146"/>
-      <c r="B36" s="32"/>
-    </row>
-    <row r="37" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
-      <c r="B37" s="32"/>
-    </row>
-    <row r="38" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="146"/>
-      <c r="B38" s="32"/>
-    </row>
-    <row r="39" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="146"/>
-      <c r="B39" s="32"/>
-    </row>
-    <row r="40" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="146"/>
-      <c r="B40" s="32"/>
-    </row>
-    <row r="41" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="146"/>
-      <c r="B41" s="32"/>
-    </row>
-    <row r="42" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="146"/>
-      <c r="B42" s="32"/>
-    </row>
-    <row r="43" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="146"/>
-      <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
-      <c r="B44" s="31"/>
-    </row>
-    <row r="45" spans="1:2" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
-      <c r="B45" s="29"/>
-    </row>
-    <row r="46" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="159" t="s">
+      <c r="B25" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="143"/>
+      <c r="B26" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="143"/>
+      <c r="B27" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="143"/>
+      <c r="B28" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="143"/>
+      <c r="B29" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="165"/>
-    </row>
-    <row r="47" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="160"/>
-      <c r="B47" s="166"/>
-    </row>
-    <row r="48" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="159" t="s">
+      <c r="B30" s="140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="135"/>
+      <c r="B31" s="141"/>
+    </row>
+    <row r="32" spans="1:24" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="163"/>
-    </row>
-    <row r="49" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="160"/>
-      <c r="B49" s="164"/>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="159" t="s">
+      <c r="B32" s="138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="135"/>
+      <c r="B33" s="139"/>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="161"/>
-    </row>
-    <row r="51" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="160"/>
-      <c r="B51" s="162"/>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B34" s="136" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="135"/>
+      <c r="B35" s="137"/>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A30:A45"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C1:C21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C1:C16"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7876,51 +7769,53 @@
   </sheetPr>
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="2" customWidth="1"/>
-    <col min="4" max="25" width="14.42578125" style="2"/>
-    <col min="26" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="50.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="2" customWidth="1"/>
+    <col min="4" max="25" width="14.453125" style="2"/>
+    <col min="26" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="64"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="64"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="58"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="64"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:25" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="165"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:25" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="179" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="58"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -7944,10 +7839,10 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:25" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="64"/>
+    <row r="6" spans="1:25" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="135"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -7971,17 +7866,19 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
+    <row r="7" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="64"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="64"/>
+      <c r="B7" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="135"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -8005,17 +7902,19 @@
       <c r="X8" s="28"/>
       <c r="Y8" s="28"/>
     </row>
-    <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
+    <row r="9" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="64"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="64"/>
+      <c r="B9" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="58"/>
+    </row>
+    <row r="10" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="167"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -8039,16 +7938,20 @@
       <c r="X10" s="28"/>
       <c r="Y10" s="28"/>
     </row>
-    <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155" t="s">
+    <row r="11" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="64"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="41"/>
+      <c r="B11" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="58"/>
+    </row>
+    <row r="12" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="143"/>
+      <c r="B12" s="40" t="s">
+        <v>116</v>
+      </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -8073,9 +7976,11 @@
       <c r="X12" s="28"/>
       <c r="Y12" s="28"/>
     </row>
-    <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="41"/>
+    <row r="13" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="160"/>
+      <c r="B13" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -8100,197 +8005,204 @@
       <c r="X13" s="28"/>
       <c r="Y13" s="28"/>
     </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="136" t="s">
+    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:25" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="137"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174" t="s">
+      <c r="B16" s="146"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="175"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="142" t="s">
+      <c r="B17" s="164"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="143"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="176"/>
-      <c r="B19" s="177"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159" t="s">
+      <c r="B18" s="150"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="165"/>
+      <c r="B19" s="166"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="179"/>
-    </row>
-    <row r="21" spans="1:2" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="180"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="159" t="s">
+      <c r="B20" s="161" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="135"/>
+      <c r="B21" s="162"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="167"/>
-    </row>
-    <row r="23" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="168"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="151" t="s">
+      <c r="B22" s="168" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="135"/>
+      <c r="B23" s="169"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="170"/>
-    </row>
-    <row r="25" spans="1:2" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="171"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="B24" s="171" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="170"/>
+      <c r="B25" s="172"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="1:2" s="28" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
-      <c r="B27" s="42"/>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B26" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="174"/>
+      <c r="B27" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C1:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8301,11 +8213,14 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8315,11 +8230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -8328,24 +8243,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="13.81640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:17" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -8397,494 +8312,417 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="26">
+        <v>8</v>
+      </c>
+      <c r="F4" s="26">
+        <v>8</v>
+      </c>
+      <c r="G4" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
         <v>69</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="26"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="26"/>
+      <c r="B6" s="26">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
       <c r="C7" s="26"/>
       <c r="E7" s="26"/>
       <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="26"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="M11" s="22"/>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="M12" s="22"/>
-      <c r="Q12" s="26"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="26"/>
-      <c r="M13" s="22"/>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="22">
-        <f>SUM(B3:B13)</f>
+      <c r="B8" s="22">
+        <f>SUM(B3:B7)</f>
+        <v>89</v>
+      </c>
+      <c r="C8" s="43">
+        <f>IF(SUM(C3:C7)&gt;0,B8-SUM(C3:C7),"")</f>
+        <v>81</v>
+      </c>
+      <c r="D8" s="43">
+        <f>IF(SUM(D3:D7)&gt;0,C8-SUM(D3:D7),"")</f>
+        <v>71</v>
+      </c>
+      <c r="E8" s="43">
+        <f>IF(SUM(E3:E7)&gt;0,D8-SUM(E3:E7),"")</f>
+        <v>63</v>
+      </c>
+      <c r="F8" s="43">
+        <f>IF(SUM(F3:F7)&gt;0,E8-SUM(F3:F7),"")</f>
+        <v>55</v>
+      </c>
+      <c r="G8" s="43">
+        <f>IF(SUM(G3:G7)&gt;0,F8-SUM(G3:G7),"")</f>
+        <v>47</v>
+      </c>
+      <c r="H8" s="43">
+        <f>IF(SUM(H3:H7)&gt;0,G8-SUM(H3:H7),"")</f>
+        <v>39</v>
+      </c>
+      <c r="I8" s="43">
+        <f>IF(SUM(I3:I7)&gt;0,H8-SUM(I3:I7),"")</f>
+        <v>31</v>
+      </c>
+      <c r="J8" s="43">
+        <f>IF(SUM(J3:J7)&gt;0,I8-SUM(J3:J7),"")</f>
+        <v>23</v>
+      </c>
+      <c r="K8" s="43">
+        <f>IF(SUM(K3:K7)&gt;0,J8-SUM(K3:K7),"")</f>
+        <v>15</v>
+      </c>
+      <c r="L8" s="43">
+        <f>IF(SUM(L3:L7)&gt;0,K8-SUM(L3:L7),"")</f>
+        <v>7</v>
+      </c>
+      <c r="M8" s="182">
+        <f>IF(SUM(M3:M7)&gt;0,L8-SUM(M3:M7),"")</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="43">
+        <f>IF(SUM(N3:N7)&gt;0,M8-SUM(N3:N7),"")</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="43">
+        <f>IF(SUM(O3:O7)&gt;0,N8-SUM(O3:O7),"")</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="43">
+        <f>IF(SUM(P3:P7)&gt;0,O8-SUM(P3:P7),"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="43">
+        <f>IF(SUM(Q3:Q7)&gt;0,P8-SUM(Q3:Q7),"")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="44" t="str">
-        <f>IF(SUM(C3:C13)&gt;0,B14-SUM(C3:C13),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="44" t="str">
-        <f>IF(SUM(D3:D13)&gt;0,C14-SUM(D3:D13),"")</f>
-        <v/>
-      </c>
-      <c r="E14" s="44" t="str">
-        <f t="shared" ref="E14:Q14" si="0">IF(SUM(E3:E13)&gt;0,D14-SUM(E3:E13),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="44" t="str">
-        <f>IF(SUM(G3:G13)&gt;0,F14-SUM(G3:G13),"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q14" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="22">
-        <v>360</v>
-      </c>
-      <c r="C15" s="25">
-        <f>B15-($B$15/COUNTA($C$2:$Q$2))</f>
-        <v>336</v>
-      </c>
-      <c r="D15" s="25">
-        <f>C15-($B$15/COUNTA($C$2:$Q$2))</f>
-        <v>312</v>
-      </c>
-      <c r="E15" s="25">
-        <f t="shared" ref="E15:Q15" si="1">D15-($B$15/COUNTA($C$2:$Q$2))</f>
-        <v>288</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="G15" s="25">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="H15" s="25">
-        <f t="shared" si="1"/>
-        <v>216</v>
-      </c>
-      <c r="I15" s="25">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="J15" s="25">
-        <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="K15" s="25">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="L15" s="25">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M15" s="25">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="N15" s="25">
-        <f t="shared" si="1"/>
+      <c r="B9" s="22">
         <v>72</v>
       </c>
-      <c r="O15" s="25">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="P15" s="25">
-        <f t="shared" si="1"/>
+      <c r="C9" s="25">
+        <f>B9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>67.2</v>
+      </c>
+      <c r="D9" s="25">
+        <f>C9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="E9" s="25">
+        <f>D9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>57.600000000000009</v>
+      </c>
+      <c r="F9" s="25">
+        <f>E9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>52.800000000000011</v>
+      </c>
+      <c r="G9" s="25">
+        <f>F9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>48.000000000000014</v>
+      </c>
+      <c r="H9" s="25">
+        <f>G9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>43.200000000000017</v>
+      </c>
+      <c r="I9" s="25">
+        <f>H9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>38.40000000000002</v>
+      </c>
+      <c r="J9" s="25">
+        <f>I9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>33.600000000000023</v>
+      </c>
+      <c r="K9" s="25">
+        <f>J9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>28.800000000000022</v>
+      </c>
+      <c r="L9" s="25">
+        <f>K9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>24.000000000000021</v>
+      </c>
+      <c r="M9" s="25">
+        <f>L9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>19.200000000000021</v>
+      </c>
+      <c r="N9" s="25">
+        <f>M9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>14.40000000000002</v>
+      </c>
+      <c r="O9" s="25">
+        <f>N9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>9.6000000000000192</v>
+      </c>
+      <c r="P9" s="25">
+        <f>O9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>4.8000000000000194</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>P9-($B$9/COUNTA($C$2:$Q$2))</f>
+        <v>1.9539925233402755E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="26">
+        <v>4</v>
+      </c>
+      <c r="C12" s="181">
+        <v>4</v>
+      </c>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="26">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="26">
+        <v>20</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="22">
+        <f>SUM(B13:B16)</f>
+        <v>31</v>
+      </c>
+      <c r="C17" s="43">
+        <f>IF(SUM(C13:C16)&gt;0,B17-SUM(C13:C16),"")</f>
+        <v>29</v>
+      </c>
+      <c r="D17" s="43">
+        <f>IF(SUM(D13:D16)&gt;0,C17-SUM(D13:D16),"")</f>
+        <v>28</v>
+      </c>
+      <c r="E17" s="43">
+        <f>IF(SUM(E13:E16)&gt;0,D17-SUM(E13:E16),"")</f>
         <v>24</v>
       </c>
-      <c r="Q15" s="25">
-        <f t="shared" si="1"/>
+      <c r="F17" s="43">
+        <f>IF(SUM(F13:F16)&gt;0,E17-SUM(F13:F16),"")</f>
+        <v>20</v>
+      </c>
+      <c r="G17" s="43">
+        <f>IF(SUM(G13:G16)&gt;0,F17-SUM(G13:G16),"")</f>
+        <v>13</v>
+      </c>
+      <c r="H17" s="43">
+        <f>IF(SUM(H13:H16)&gt;0,G17-SUM(H13:H16),"")</f>
+        <v>8</v>
+      </c>
+      <c r="I17" s="43">
+        <f>IF(SUM(I13:I16)&gt;0,H17-SUM(I13:I16),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="22" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="22">
         <v>40</v>
       </c>
-      <c r="M17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="26"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="26"/>
-    </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="26"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="26"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="26"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="26"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="26"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="22">
-        <f>SUM(B18:B33)</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="44" t="str">
-        <f>IF(SUM(C18:C33)&gt;0,B34-SUM(C18:C33),"")</f>
-        <v/>
-      </c>
-      <c r="D34" s="44" t="str">
-        <f t="shared" ref="D34:Q34" si="2">IF(SUM(D18:D33)&gt;0,C34-SUM(D18:D33),"")</f>
-        <v/>
-      </c>
-      <c r="E34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q34" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="22">
-        <f>B34</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="25">
-        <f>B35-($B$34/COUNTA($C$17:$Q$17))</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="25">
-        <f t="shared" ref="D35:Q35" si="3">C35-($B$34/COUNTA($C$17:$Q$17))</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C18" s="25">
+        <f>B18-($B$17/COUNTA($C$11:$I$11))</f>
+        <v>35.571428571428569</v>
+      </c>
+      <c r="D18" s="25">
+        <f>C18-($B$17/COUNTA($C$11:$I$11))</f>
+        <v>31.142857142857139</v>
+      </c>
+      <c r="E18" s="25">
+        <f>D18-($B$17/COUNTA($C$11:$I$11))</f>
+        <v>26.714285714285708</v>
+      </c>
+      <c r="F18" s="25">
+        <f>E18-($B$17/COUNTA($C$11:$I$11))</f>
+        <v>22.285714285714278</v>
+      </c>
+      <c r="G18" s="25">
+        <f>F18-($B$17/COUNTA($C$11:$I$11))</f>
+        <v>17.857142857142847</v>
+      </c>
+      <c r="H18" s="25">
+        <f>G18-($B$17/COUNTA($C$11:$I$11))</f>
+        <v>13.428571428571418</v>
+      </c>
+      <c r="I18" s="25">
+        <f>H18-($B$17/COUNTA($C$11:$I$11))</f>
+        <v>8.9999999999999893</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B17:C17" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Planejamento PI.xlsx
+++ b/Planejamento PI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueShift\Documents\Projeto Integrado\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3D4E14-A1D1-4D1E-94E1-13E333AF94A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC8B93D-8EEF-419C-B681-EDD28B3DBF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18250" windowHeight="6440" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18255" windowHeight="6435" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
   <si>
     <t>R</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Sprint Planning</t>
   </si>
   <si>
-    <t xml:space="preserve">Objetivo da Sprint: </t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Como foram resolvidos os Impedimentos</t>
   </si>
   <si>
-    <t>Objetivo da Sprint:</t>
-  </si>
-  <si>
     <t>Sugestões e Feedback do PO</t>
   </si>
   <si>
@@ -216,12 +210,6 @@
   </si>
   <si>
     <t>Eduarda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data da Revisão </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data da Revisão  </t>
   </si>
   <si>
     <t xml:space="preserve">Data da Retrospectiva.   </t>
@@ -495,7 +483,19 @@
     <t>Criação do Layout do Dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">Teste </t>
+    <t>Realizar teste de funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realizar teste de funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar teste de funcionalidade </t>
+  </si>
+  <si>
+    <t>Data da Revisão  23-03</t>
+  </si>
+  <si>
+    <t>Data da Revisão 01-03</t>
   </si>
 </sst>
 </file>
@@ -1226,14 +1226,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1272,7 +1271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1280,9 +1278,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,9 +1295,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1348,6 +1340,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1378,6 +1384,85 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1396,12 +1481,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,28 +1532,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,103 +1546,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1547,55 +1553,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1608,6 +1575,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1632,11 +1608,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1649,38 +1670,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1688,8 +1682,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4245,367 +4243,373 @@
   <dimension ref="A1:AA139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" style="2" customWidth="1"/>
-    <col min="6" max="27" width="14.453125" style="2"/>
-    <col min="28" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="2" customWidth="1"/>
+    <col min="6" max="27" width="14.42578125" style="2"/>
+    <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="58"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="1:27" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="1:27" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E5" s="60"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="60"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="179" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="179" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="60"/>
+    </row>
+    <row r="9" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="179" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="179" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="60"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="180" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="58"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="60"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="58"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" spans="1:27" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B15" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="5">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="58"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="5">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="58"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="C16" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="58"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="5">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
@@ -4626,1185 +4630,1185 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="10"/>
-    <col min="2" max="3" width="11.453125" style="20" customWidth="1"/>
-    <col min="4" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="38" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="3" width="11.42578125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="38" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="67" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="70">
+        <v>1</v>
+      </c>
+      <c r="C3" s="67">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="71"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="H4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="68">
-        <v>1</v>
-      </c>
-      <c r="C3" s="65">
-        <v>1</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="175" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="45" t="s">
+      <c r="I4" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="72"/>
+      <c r="C5" s="44">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="69"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
-      <c r="H4" s="45" t="s">
+      <c r="I5" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="H7" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="70"/>
-      <c r="C5" s="48">
-        <v>2</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="178" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="47"/>
-      <c r="H6" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="H7" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="45">
+      <c r="I7" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-    </row>
-    <row r="36" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-    </row>
-    <row r="43" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-    </row>
-    <row r="45" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-    </row>
-    <row r="46" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-    </row>
-    <row r="47" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-    </row>
-    <row r="48" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-    </row>
-    <row r="49" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-    </row>
-    <row r="51" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-    </row>
-    <row r="52" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-    </row>
-    <row r="56" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-    </row>
-    <row r="58" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-    </row>
-    <row r="60" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-    </row>
-    <row r="61" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-    </row>
-    <row r="62" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-    </row>
-    <row r="64" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-    </row>
-    <row r="65" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-    </row>
-    <row r="66" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-    </row>
-    <row r="67" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-    </row>
-    <row r="68" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-    </row>
-    <row r="69" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-    </row>
-    <row r="70" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-    </row>
-    <row r="71" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-    </row>
-    <row r="72" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-    </row>
-    <row r="73" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-    </row>
-    <row r="74" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-    </row>
-    <row r="75" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-    </row>
-    <row r="76" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-    </row>
-    <row r="77" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-    </row>
-    <row r="78" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-    </row>
-    <row r="79" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-    </row>
-    <row r="80" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-    </row>
-    <row r="81" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-    </row>
-    <row r="82" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-    </row>
-    <row r="83" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-    </row>
-    <row r="84" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-    </row>
-    <row r="85" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-    </row>
-    <row r="86" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-    </row>
-    <row r="87" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-    </row>
-    <row r="88" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-    </row>
-    <row r="89" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-    </row>
-    <row r="90" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-    </row>
-    <row r="91" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-    </row>
-    <row r="92" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-    </row>
-    <row r="93" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-    </row>
-    <row r="94" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-    </row>
-    <row r="95" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-    </row>
-    <row r="96" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-    </row>
-    <row r="97" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-    </row>
-    <row r="98" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-    </row>
-    <row r="99" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-    </row>
-    <row r="100" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-    </row>
-    <row r="101" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-    </row>
-    <row r="102" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-    </row>
-    <row r="103" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-    </row>
-    <row r="104" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-    </row>
-    <row r="105" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-    </row>
-    <row r="106" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-    </row>
-    <row r="107" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-    </row>
-    <row r="108" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-    </row>
-    <row r="109" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-    </row>
-    <row r="110" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-    </row>
-    <row r="111" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-    </row>
-    <row r="112" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-    </row>
-    <row r="113" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-    </row>
-    <row r="114" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-    </row>
-    <row r="115" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-    </row>
-    <row r="116" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-    </row>
-    <row r="117" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-    </row>
-    <row r="118" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-    </row>
-    <row r="119" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-    </row>
-    <row r="120" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-    </row>
-    <row r="121" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-    </row>
-    <row r="122" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-    </row>
-    <row r="123" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-    </row>
-    <row r="124" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-    </row>
-    <row r="125" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-    </row>
-    <row r="126" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-    </row>
-    <row r="127" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-    </row>
-    <row r="128" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-    </row>
-    <row r="129" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="130" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-    </row>
-    <row r="131" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-    </row>
-    <row r="132" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-    </row>
-    <row r="133" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-    </row>
-    <row r="134" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-    </row>
-    <row r="135" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-    </row>
-    <row r="136" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-    </row>
-    <row r="137" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-    </row>
-    <row r="138" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-    </row>
-    <row r="139" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-    </row>
-    <row r="140" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-    </row>
-    <row r="141" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-    </row>
-    <row r="142" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-    </row>
-    <row r="143" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-    </row>
-    <row r="144" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-    </row>
-    <row r="145" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-    </row>
-    <row r="146" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-    </row>
-    <row r="147" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-    </row>
-    <row r="148" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-    </row>
-    <row r="149" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-    </row>
-    <row r="150" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-    </row>
-    <row r="151" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-    </row>
-    <row r="152" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-    </row>
-    <row r="153" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-    </row>
-    <row r="154" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-    </row>
-    <row r="155" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-    </row>
-    <row r="156" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-    </row>
-    <row r="157" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-    </row>
-    <row r="158" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-    </row>
-    <row r="159" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-    </row>
-    <row r="160" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-    </row>
-    <row r="161" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-    </row>
-    <row r="162" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-    </row>
-    <row r="163" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-    </row>
-    <row r="164" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-    </row>
-    <row r="165" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-    </row>
-    <row r="166" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-    </row>
-    <row r="167" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-    </row>
-    <row r="168" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-    </row>
-    <row r="169" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-    </row>
-    <row r="170" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-    </row>
-    <row r="171" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-    </row>
-    <row r="172" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-    </row>
-    <row r="173" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-    </row>
-    <row r="174" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-    </row>
-    <row r="175" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-    </row>
-    <row r="176" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
-    </row>
-    <row r="177" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-    </row>
-    <row r="178" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-    </row>
-    <row r="179" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-    </row>
-    <row r="180" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-    </row>
-    <row r="181" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-    </row>
-    <row r="182" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-    </row>
-    <row r="183" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-    </row>
-    <row r="184" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-    </row>
-    <row r="185" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-    </row>
-    <row r="186" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-    </row>
-    <row r="187" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-    </row>
-    <row r="188" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-    </row>
-    <row r="189" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-    </row>
-    <row r="190" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-    </row>
-    <row r="191" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-    </row>
-    <row r="192" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-    </row>
-    <row r="193" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-    </row>
-    <row r="194" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-    </row>
-    <row r="195" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-    </row>
-    <row r="196" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-    </row>
-    <row r="197" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-    </row>
-    <row r="198" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-    </row>
-    <row r="199" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
-    </row>
-    <row r="200" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-    </row>
-    <row r="201" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-    </row>
-    <row r="202" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-    </row>
-    <row r="203" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-    </row>
-    <row r="204" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-    </row>
-    <row r="205" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-    </row>
-    <row r="206" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-    </row>
-    <row r="207" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-    </row>
-    <row r="208" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-    </row>
-    <row r="209" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
-    </row>
-    <row r="210" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
-    </row>
-    <row r="211" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-    </row>
-    <row r="212" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-    </row>
-    <row r="213" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
-    </row>
-    <row r="214" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
-    </row>
-    <row r="215" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-    </row>
-    <row r="216" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
-    </row>
-    <row r="217" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
-    </row>
-    <row r="218" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-    </row>
-    <row r="219" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-    </row>
-    <row r="220" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-    </row>
-    <row r="221" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
-    </row>
-    <row r="222" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-    </row>
-    <row r="223" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-    </row>
-    <row r="224" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-    </row>
-    <row r="225" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
-    </row>
-    <row r="226" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
-    </row>
-    <row r="227" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
-    </row>
-    <row r="228" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-    </row>
-    <row r="229" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-    </row>
-    <row r="230" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-    </row>
-    <row r="231" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
-    </row>
-    <row r="232" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-    </row>
-    <row r="233" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-    </row>
-    <row r="234" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
-    </row>
-    <row r="235" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
-    </row>
-    <row r="236" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-    </row>
-    <row r="237" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-    </row>
-    <row r="238" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-    </row>
-    <row r="239" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
-    </row>
-    <row r="240" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
-    </row>
-    <row r="241" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
-    </row>
-    <row r="242" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
-    </row>
-    <row r="243" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
-    </row>
-    <row r="244" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
-    </row>
-    <row r="245" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
-    </row>
-    <row r="246" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
-    </row>
-    <row r="247" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
-    </row>
-    <row r="248" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-    </row>
-    <row r="249" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
-    </row>
-    <row r="250" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
-    </row>
-    <row r="251" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
-    </row>
-    <row r="252" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-    </row>
-    <row r="253" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-    </row>
-    <row r="254" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
-    </row>
-    <row r="255" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="19"/>
-      <c r="C255" s="19"/>
-    </row>
-    <row r="256" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="19"/>
-      <c r="C256" s="19"/>
-    </row>
-    <row r="257" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
-    </row>
-    <row r="258" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
-    </row>
-    <row r="259" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
-    </row>
-    <row r="260" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
-    </row>
-    <row r="261" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-    </row>
-    <row r="262" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
-    </row>
-    <row r="263" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
-    </row>
-    <row r="264" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
-    </row>
-    <row r="265" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
-    </row>
-    <row r="266" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="20"/>
-      <c r="C266" s="20"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+    </row>
+    <row r="45" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+    </row>
+    <row r="49" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+    </row>
+    <row r="50" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+    </row>
+    <row r="51" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+    </row>
+    <row r="52" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+    </row>
+    <row r="53" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+    </row>
+    <row r="54" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+    </row>
+    <row r="55" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+    </row>
+    <row r="57" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+    </row>
+    <row r="58" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+    </row>
+    <row r="60" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+    </row>
+    <row r="61" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+    </row>
+    <row r="63" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+    </row>
+    <row r="64" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+    </row>
+    <row r="66" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+    </row>
+    <row r="67" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+    </row>
+    <row r="68" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+    </row>
+    <row r="69" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+    </row>
+    <row r="70" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+    </row>
+    <row r="71" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+    </row>
+    <row r="72" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+    </row>
+    <row r="73" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+    </row>
+    <row r="74" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+    </row>
+    <row r="75" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+    </row>
+    <row r="76" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+    </row>
+    <row r="77" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+    </row>
+    <row r="78" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+    </row>
+    <row r="79" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+    </row>
+    <row r="80" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+    </row>
+    <row r="81" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+    </row>
+    <row r="82" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+    </row>
+    <row r="83" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+    </row>
+    <row r="84" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+    </row>
+    <row r="85" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+    </row>
+    <row r="86" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+    </row>
+    <row r="87" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+    </row>
+    <row r="88" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+    </row>
+    <row r="89" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+    </row>
+    <row r="90" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+    </row>
+    <row r="91" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+    </row>
+    <row r="92" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+    </row>
+    <row r="93" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+    </row>
+    <row r="94" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+    </row>
+    <row r="95" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+    </row>
+    <row r="96" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+    </row>
+    <row r="97" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+    </row>
+    <row r="98" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+    </row>
+    <row r="101" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+    </row>
+    <row r="114" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+    </row>
+    <row r="115" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+    </row>
+    <row r="116" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+    </row>
+    <row r="118" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+    </row>
+    <row r="119" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+    </row>
+    <row r="120" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+    </row>
+    <row r="121" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+    </row>
+    <row r="122" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+    </row>
+    <row r="123" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+    </row>
+    <row r="124" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+    </row>
+    <row r="125" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+    </row>
+    <row r="126" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+    </row>
+    <row r="127" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+    </row>
+    <row r="128" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+    </row>
+    <row r="129" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+    </row>
+    <row r="130" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+    </row>
+    <row r="131" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+    </row>
+    <row r="132" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+    </row>
+    <row r="133" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+    </row>
+    <row r="134" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+    </row>
+    <row r="135" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+    </row>
+    <row r="136" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+    </row>
+    <row r="137" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+    </row>
+    <row r="138" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+    </row>
+    <row r="139" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+    </row>
+    <row r="140" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+    </row>
+    <row r="141" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+    </row>
+    <row r="142" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+    </row>
+    <row r="143" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+    </row>
+    <row r="144" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+    </row>
+    <row r="145" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+    </row>
+    <row r="146" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+    </row>
+    <row r="147" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+    </row>
+    <row r="148" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+    </row>
+    <row r="149" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+    </row>
+    <row r="150" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+    </row>
+    <row r="151" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+    </row>
+    <row r="152" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+    </row>
+    <row r="153" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+    </row>
+    <row r="154" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+    </row>
+    <row r="155" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+    </row>
+    <row r="156" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+    </row>
+    <row r="157" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+    </row>
+    <row r="158" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+    </row>
+    <row r="159" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+    </row>
+    <row r="160" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+    </row>
+    <row r="161" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+    </row>
+    <row r="162" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+    </row>
+    <row r="163" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+    </row>
+    <row r="164" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+    </row>
+    <row r="165" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+    </row>
+    <row r="166" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+    </row>
+    <row r="167" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+    </row>
+    <row r="168" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+    </row>
+    <row r="169" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+    </row>
+    <row r="170" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+    </row>
+    <row r="171" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+    </row>
+    <row r="172" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+    </row>
+    <row r="173" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+    </row>
+    <row r="174" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+    </row>
+    <row r="175" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+    </row>
+    <row r="176" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+    </row>
+    <row r="177" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+    </row>
+    <row r="178" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+    </row>
+    <row r="179" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+    </row>
+    <row r="180" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+    </row>
+    <row r="181" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+    </row>
+    <row r="182" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+    </row>
+    <row r="183" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="18"/>
+      <c r="C183" s="18"/>
+    </row>
+    <row r="184" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+    </row>
+    <row r="185" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="18"/>
+      <c r="C185" s="18"/>
+    </row>
+    <row r="186" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+    </row>
+    <row r="187" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+    </row>
+    <row r="188" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+    </row>
+    <row r="189" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+    </row>
+    <row r="190" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="18"/>
+      <c r="C190" s="18"/>
+    </row>
+    <row r="191" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+    </row>
+    <row r="192" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+    </row>
+    <row r="193" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+    </row>
+    <row r="194" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="18"/>
+      <c r="C194" s="18"/>
+    </row>
+    <row r="195" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+    </row>
+    <row r="196" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+    </row>
+    <row r="197" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+    </row>
+    <row r="198" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+    </row>
+    <row r="199" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
+    </row>
+    <row r="200" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
+    </row>
+    <row r="201" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+    </row>
+    <row r="202" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+    </row>
+    <row r="203" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+    </row>
+    <row r="204" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+    </row>
+    <row r="205" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
+    </row>
+    <row r="206" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+    </row>
+    <row r="207" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+    </row>
+    <row r="208" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+    </row>
+    <row r="209" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="18"/>
+      <c r="C209" s="18"/>
+    </row>
+    <row r="210" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
+    </row>
+    <row r="211" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
+    </row>
+    <row r="212" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+    </row>
+    <row r="213" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
+    </row>
+    <row r="214" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+    </row>
+    <row r="215" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+    </row>
+    <row r="216" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
+    </row>
+    <row r="217" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+    </row>
+    <row r="218" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+    </row>
+    <row r="219" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
+    </row>
+    <row r="220" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
+    </row>
+    <row r="221" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="18"/>
+      <c r="C221" s="18"/>
+    </row>
+    <row r="222" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="18"/>
+      <c r="C222" s="18"/>
+    </row>
+    <row r="223" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+    </row>
+    <row r="224" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+    </row>
+    <row r="225" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="18"/>
+      <c r="C225" s="18"/>
+    </row>
+    <row r="226" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="18"/>
+      <c r="C226" s="18"/>
+    </row>
+    <row r="227" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+    </row>
+    <row r="228" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+    </row>
+    <row r="229" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+    </row>
+    <row r="230" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
+    </row>
+    <row r="231" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+    </row>
+    <row r="232" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+    </row>
+    <row r="233" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
+    </row>
+    <row r="234" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+    </row>
+    <row r="235" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
+    </row>
+    <row r="236" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
+    </row>
+    <row r="237" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+    </row>
+    <row r="238" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+    </row>
+    <row r="239" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+    </row>
+    <row r="240" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
+    </row>
+    <row r="241" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
+    </row>
+    <row r="242" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="18"/>
+      <c r="C242" s="18"/>
+    </row>
+    <row r="243" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+    </row>
+    <row r="244" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+    </row>
+    <row r="245" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+    </row>
+    <row r="246" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="18"/>
+      <c r="C246" s="18"/>
+    </row>
+    <row r="247" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
+    </row>
+    <row r="248" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+    </row>
+    <row r="249" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
+    </row>
+    <row r="250" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+    </row>
+    <row r="251" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="18"/>
+      <c r="C251" s="18"/>
+    </row>
+    <row r="252" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="18"/>
+      <c r="C252" s="18"/>
+    </row>
+    <row r="253" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+    </row>
+    <row r="254" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
+    </row>
+    <row r="255" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+    </row>
+    <row r="256" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="18"/>
+      <c r="C256" s="18"/>
+    </row>
+    <row r="257" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="18"/>
+      <c r="C257" s="18"/>
+    </row>
+    <row r="258" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
+    </row>
+    <row r="259" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+    </row>
+    <row r="260" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
+    </row>
+    <row r="261" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
+    </row>
+    <row r="262" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
+    </row>
+    <row r="263" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="18"/>
+      <c r="C263" s="18"/>
+    </row>
+    <row r="264" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
+    </row>
+    <row r="265" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
+    </row>
+    <row r="266" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="19"/>
+      <c r="C266" s="19"/>
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="20"/>
-      <c r="C267" s="20"/>
+    <row r="267" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="20"/>
-      <c r="C268" s="20"/>
+    <row r="268" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="19"/>
+      <c r="C268" s="19"/>
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="20"/>
-      <c r="C269" s="20"/>
+    <row r="269" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
       <c r="D269"/>
       <c r="E269"/>
     </row>
@@ -5826,550 +5830,550 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" style="8" customWidth="1"/>
-    <col min="6" max="8" width="17.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" style="1" customWidth="1"/>
-    <col min="11" max="27" width="14.453125" style="8"/>
-    <col min="28" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="7" customWidth="1"/>
+    <col min="6" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="27" width="14.42578125" style="7"/>
+    <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+    <row r="1" spans="1:27" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
+    </row>
+    <row r="3" spans="1:27" s="48" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
+    </row>
+    <row r="4" spans="1:27" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
+    </row>
+    <row r="5" spans="1:27" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" spans="1:27" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="115" t="s">
+      <c r="B6" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="F6" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+    </row>
+    <row r="7" spans="1:27" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="106"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
+    </row>
+    <row r="21" spans="1:9" s="25" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:27" s="52" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-    </row>
-    <row r="4" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="5" spans="1:27" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="95"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="124"/>
-      <c r="F6" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-    </row>
-    <row r="7" spans="1:27" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="101"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="E9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="94" t="s">
+      <c r="G22" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="123"/>
+      <c r="I22" s="124"/>
+    </row>
+    <row r="23" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="95"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92"/>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="87"/>
-    </row>
-    <row r="21" spans="1:9" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="95"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="85" t="s">
+      <c r="B24" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
-    </row>
-    <row r="23" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="95"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104"/>
-    </row>
-    <row r="25" spans="1:9" s="28" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="101"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+    </row>
+    <row r="25" spans="1:9" s="25" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="115"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="6:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="6:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="6:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="6:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="6:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -6377,16 +6381,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D25"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:E15"/>
@@ -6403,21 +6412,16 @@
     <mergeCell ref="G2:I3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6426,380 +6430,356 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA172"/>
+  <dimension ref="A1:AA164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" style="2" customWidth="1"/>
-    <col min="6" max="27" width="14.453125" style="2"/>
-    <col min="28" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="2" customWidth="1"/>
+    <col min="6" max="27" width="14.42578125" style="2"/>
+    <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="58"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="1:27" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="49">
+        <v>44241</v>
+      </c>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="179" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="49">
+        <v>44244</v>
+      </c>
+      <c r="E8" s="60"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="179" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="60"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="179" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="53">
-        <v>44241</v>
-      </c>
-      <c r="E7" s="58"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="53">
-        <v>44244</v>
-      </c>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="58"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="58"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="60"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="58"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="B12" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="60"/>
+    </row>
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E14"/>
+    <mergeCell ref="E1:E12"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
@@ -6811,369 +6791,339 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AA160"/>
+  <dimension ref="A1:AA157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" style="2" customWidth="1"/>
-    <col min="6" max="27" width="14.453125" style="2"/>
-    <col min="28" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="2" customWidth="1"/>
+    <col min="6" max="27" width="14.42578125" style="2"/>
+    <col min="28" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="127" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="58"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="1:27" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="180" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="49">
+        <v>44250</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="180" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="49">
+        <v>44250</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="49">
+        <v>44250</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="53">
-        <v>44250</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="53">
-        <v>44250</v>
-      </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="53">
-        <v>44250</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E14"/>
+    <mergeCell ref="E1:E11"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
@@ -7190,549 +7140,558 @@
   </sheetPr>
   <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B33"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="134.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="2" customWidth="1"/>
-    <col min="4" max="24" width="14.453125" style="2"/>
-    <col min="25" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="42.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="134.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="2" customWidth="1"/>
+    <col min="4" max="24" width="14.42578125" style="2"/>
+    <col min="25" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="137"/>
+      <c r="C2" s="60"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="137"/>
+      <c r="C3" s="60"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="139"/>
+      <c r="C4" s="60"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="60"/>
+    </row>
+    <row r="6" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="58"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="58"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="149" t="s">
+      <c r="B6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="142"/>
+      <c r="B7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142"/>
+      <c r="B8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+    </row>
+    <row r="9" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="142"/>
+      <c r="B9" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="142"/>
+      <c r="B10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:24" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="142"/>
+      <c r="B11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="144"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="148"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="149"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="152"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+    </row>
+    <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="133"/>
+    </row>
+    <row r="21" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="135"/>
+    </row>
+    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="135"/>
+    </row>
+    <row r="23" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="58"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="151"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="58"/>
-    </row>
-    <row r="6" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="143" t="s">
+      <c r="B23" s="154"/>
+    </row>
+    <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="142"/>
+      <c r="B26" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="142"/>
+      <c r="B27" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="142"/>
+      <c r="B28" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="142"/>
+      <c r="B29" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-    </row>
-    <row r="7" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="143"/>
-      <c r="B7" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-    </row>
-    <row r="8" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="143"/>
-      <c r="B8" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-    </row>
-    <row r="9" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="143"/>
-      <c r="B9" s="33" t="s">
+      <c r="B30" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-    </row>
-    <row r="10" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="143"/>
-      <c r="B10" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-    </row>
-    <row r="11" spans="1:24" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="143"/>
-      <c r="B11" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-    </row>
-    <row r="12" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="142" t="s">
+    </row>
+    <row r="31" spans="1:24" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="156"/>
+      <c r="B31" s="162"/>
+    </row>
+    <row r="32" spans="1:24" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="153" t="s">
+      <c r="B32" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="58"/>
-    </row>
-    <row r="13" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="144"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-    </row>
-    <row r="14" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="155" t="s">
+    </row>
+    <row r="33" spans="1:2" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="156"/>
+      <c r="B33" s="160"/>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="157" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="58"/>
-    </row>
-    <row r="15" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="156"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-    </row>
-    <row r="16" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="58"/>
-    </row>
-    <row r="17" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-    </row>
-    <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:24" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="146"/>
-    </row>
-    <row r="21" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="131"/>
-    </row>
-    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="130" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="131"/>
-    </row>
-    <row r="23" spans="1:24" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="132" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="133"/>
-    </row>
-    <row r="24" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-    </row>
-    <row r="25" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="142" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="143"/>
-      <c r="B26" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="143"/>
-      <c r="B27" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="143"/>
-      <c r="B28" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="143"/>
-      <c r="B29" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="140" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="135"/>
-      <c r="B31" s="141"/>
-    </row>
-    <row r="32" spans="1:24" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="138" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="135"/>
-      <c r="B33" s="139"/>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="136" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="135"/>
-      <c r="B35" s="137"/>
-    </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="B34" s="157" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="156"/>
+      <c r="B35" s="158"/>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C1:C16"/>
@@ -7748,15 +7707,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7769,440 +7719,443 @@
   </sheetPr>
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="2" customWidth="1"/>
-    <col min="4" max="25" width="14.453125" style="2"/>
-    <col min="26" max="16384" width="14.453125" style="1"/>
+    <col min="1" max="1" width="50.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="2" customWidth="1"/>
+    <col min="4" max="25" width="14.42578125" style="2"/>
+    <col min="26" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="170" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="171"/>
+      <c r="C2" s="60"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="60"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="60"/>
+    </row>
+    <row r="5" spans="1:25" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="156"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="157" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="60"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="58"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
+      <c r="B9" s="157" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="60"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="174"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="142"/>
+      <c r="B12" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="152"/>
+      <c r="B13" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+    </row>
+    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="133"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="171"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="58"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="165"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="58"/>
-    </row>
-    <row r="5" spans="1:25" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="179" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="135"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="134" t="s">
+      <c r="B18" s="139"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="172"/>
+      <c r="B19" s="173"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="175" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="25" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="156"/>
+      <c r="B21" s="176"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="163" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="156"/>
+      <c r="B23" s="164"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="166" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="165"/>
+      <c r="B25" s="167"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="135"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-    </row>
-    <row r="9" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="58"/>
-    </row>
-    <row r="10" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="167"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-    </row>
-    <row r="11" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="159" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="58"/>
-    </row>
-    <row r="12" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="143"/>
-      <c r="B12" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-    </row>
-    <row r="13" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="160"/>
-      <c r="B13" s="40" t="s">
+      <c r="B26" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="169"/>
+      <c r="B27" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-    </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:25" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="145" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="146"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="163" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="164"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="149" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="150"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="165"/>
-      <c r="B19" s="166"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="161" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="135"/>
-      <c r="B21" s="162"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="168" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="135"/>
-      <c r="B23" s="169"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="155" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="171" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="170"/>
-      <c r="B25" s="172"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="173" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="174"/>
-      <c r="B27" s="41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C1:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -8213,14 +8166,11 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8230,11 +8180,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -8245,76 +8195,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="13.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="Q2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>68</v>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -8326,9 +8276,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>66</v>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -8336,26 +8286,26 @@
       <c r="D4" s="1">
         <v>6</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>8</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>8</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
-        <v>69</v>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="1">
         <v>8</v>
       </c>
@@ -8372,27 +8322,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="26">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="24">
         <v>2</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="26">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="24">
         <v>5</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="N7" s="1">
         <v>2</v>
       </c>
@@ -8406,193 +8356,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="22">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="20">
         <f>SUM(B3:B7)</f>
         <v>89</v>
       </c>
-      <c r="C8" s="43">
-        <f>IF(SUM(C3:C7)&gt;0,B8-SUM(C3:C7),"")</f>
+      <c r="C8" s="39">
+        <f t="shared" ref="C8:Q8" si="0">IF(SUM(C3:C7)&gt;0,B8-SUM(C3:C7),"")</f>
         <v>81</v>
       </c>
-      <c r="D8" s="43">
-        <f>IF(SUM(D3:D7)&gt;0,C8-SUM(D3:D7),"")</f>
+      <c r="D8" s="39">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E8" s="43">
-        <f>IF(SUM(E3:E7)&gt;0,D8-SUM(E3:E7),"")</f>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F8" s="43">
-        <f>IF(SUM(F3:F7)&gt;0,E8-SUM(F3:F7),"")</f>
+      <c r="F8" s="39">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G8" s="43">
-        <f>IF(SUM(G3:G7)&gt;0,F8-SUM(G3:G7),"")</f>
+      <c r="G8" s="39">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H8" s="43">
-        <f>IF(SUM(H3:H7)&gt;0,G8-SUM(H3:H7),"")</f>
+      <c r="H8" s="39">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I8" s="43">
-        <f>IF(SUM(I3:I7)&gt;0,H8-SUM(I3:I7),"")</f>
+      <c r="I8" s="39">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J8" s="43">
-        <f>IF(SUM(J3:J7)&gt;0,I8-SUM(J3:J7),"")</f>
+      <c r="J8" s="39">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K8" s="43">
-        <f>IF(SUM(K3:K7)&gt;0,J8-SUM(K3:K7),"")</f>
+      <c r="K8" s="39">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L8" s="43">
-        <f>IF(SUM(L3:L7)&gt;0,K8-SUM(L3:L7),"")</f>
+      <c r="L8" s="39">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M8" s="182">
-        <f>IF(SUM(M3:M7)&gt;0,L8-SUM(M3:M7),"")</f>
+      <c r="M8" s="56">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N8" s="43">
-        <f>IF(SUM(N3:N7)&gt;0,M8-SUM(N3:N7),"")</f>
+      <c r="N8" s="39">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O8" s="43">
-        <f>IF(SUM(O3:O7)&gt;0,N8-SUM(O3:O7),"")</f>
+      <c r="O8" s="39">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P8" s="43">
-        <f>IF(SUM(P3:P7)&gt;0,O8-SUM(P3:P7),"")</f>
+      <c r="P8" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="43">
-        <f>IF(SUM(Q3:Q7)&gt;0,P8-SUM(Q3:Q7),"")</f>
+      <c r="Q8" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="22">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="20">
         <v>72</v>
       </c>
-      <c r="C9" s="25">
-        <f>B9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="C9" s="23">
+        <f t="shared" ref="C9:Q9" si="1">B9-($B$9/COUNTA($C$2:$Q$2))</f>
         <v>67.2</v>
       </c>
-      <c r="D9" s="25">
-        <f>C9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="D9" s="23">
+        <f t="shared" si="1"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="E9" s="25">
-        <f>D9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="E9" s="23">
+        <f t="shared" si="1"/>
         <v>57.600000000000009</v>
       </c>
-      <c r="F9" s="25">
-        <f>E9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="F9" s="23">
+        <f t="shared" si="1"/>
         <v>52.800000000000011</v>
       </c>
-      <c r="G9" s="25">
-        <f>F9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="G9" s="23">
+        <f t="shared" si="1"/>
         <v>48.000000000000014</v>
       </c>
-      <c r="H9" s="25">
-        <f>G9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
         <v>43.200000000000017</v>
       </c>
-      <c r="I9" s="25">
-        <f>H9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="I9" s="23">
+        <f t="shared" si="1"/>
         <v>38.40000000000002</v>
       </c>
-      <c r="J9" s="25">
-        <f>I9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="J9" s="23">
+        <f t="shared" si="1"/>
         <v>33.600000000000023</v>
       </c>
-      <c r="K9" s="25">
-        <f>J9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="K9" s="23">
+        <f t="shared" si="1"/>
         <v>28.800000000000022</v>
       </c>
-      <c r="L9" s="25">
-        <f>K9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="L9" s="23">
+        <f t="shared" si="1"/>
         <v>24.000000000000021</v>
       </c>
-      <c r="M9" s="25">
-        <f>L9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
         <v>19.200000000000021</v>
       </c>
-      <c r="N9" s="25">
-        <f>M9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="N9" s="23">
+        <f t="shared" si="1"/>
         <v>14.40000000000002</v>
       </c>
-      <c r="O9" s="25">
-        <f>N9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="O9" s="23">
+        <f t="shared" si="1"/>
         <v>9.6000000000000192</v>
       </c>
-      <c r="P9" s="25">
-        <f>O9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="P9" s="23">
+        <f t="shared" si="1"/>
         <v>4.8000000000000194</v>
       </c>
-      <c r="Q9" s="25">
-        <f>P9-($B$9/COUNTA($C$2:$Q$2))</f>
+      <c r="Q9" s="23">
+        <f t="shared" si="1"/>
         <v>1.9539925233402755E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="I11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="26">
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="24">
         <v>4</v>
       </c>
-      <c r="C12" s="181">
+      <c r="C12" s="55">
         <v>4</v>
       </c>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
-        <v>72</v>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -8601,9 +8551,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>73</v>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -8612,11 +8562,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="26">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="24">
         <v>8</v>
       </c>
       <c r="E15" s="1">
@@ -8626,15 +8576,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="26">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="24">
         <v>20</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="1">
         <v>7</v>
       </c>
@@ -8645,76 +8595,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="22">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="20">
         <f>SUM(B13:B16)</f>
         <v>31</v>
       </c>
-      <c r="C17" s="43">
-        <f>IF(SUM(C13:C16)&gt;0,B17-SUM(C13:C16),"")</f>
+      <c r="C17" s="39">
+        <f t="shared" ref="C17:I17" si="2">IF(SUM(C13:C16)&gt;0,B17-SUM(C13:C16),"")</f>
         <v>29</v>
       </c>
-      <c r="D17" s="43">
-        <f>IF(SUM(D13:D16)&gt;0,C17-SUM(D13:D16),"")</f>
+      <c r="D17" s="39">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E17" s="43">
-        <f>IF(SUM(E13:E16)&gt;0,D17-SUM(E13:E16),"")</f>
+      <c r="E17" s="39">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="F17" s="43">
-        <f>IF(SUM(F13:F16)&gt;0,E17-SUM(F13:F16),"")</f>
+      <c r="F17" s="39">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G17" s="43">
-        <f>IF(SUM(G13:G16)&gt;0,F17-SUM(G13:G16),"")</f>
+      <c r="G17" s="39">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H17" s="43">
-        <f>IF(SUM(H13:H16)&gt;0,G17-SUM(H13:H16),"")</f>
+      <c r="H17" s="39">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I17" s="43">
-        <f>IF(SUM(I13:I16)&gt;0,H17-SUM(I13:I16),"")</f>
+      <c r="I17" s="39">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="22">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="20">
         <v>40</v>
       </c>
-      <c r="C18" s="25">
-        <f>B18-($B$17/COUNTA($C$11:$I$11))</f>
+      <c r="C18" s="23">
+        <f t="shared" ref="C18:I18" si="3">B18-($B$17/COUNTA($C$11:$I$11))</f>
         <v>35.571428571428569</v>
       </c>
-      <c r="D18" s="25">
-        <f>C18-($B$17/COUNTA($C$11:$I$11))</f>
+      <c r="D18" s="23">
+        <f t="shared" si="3"/>
         <v>31.142857142857139</v>
       </c>
-      <c r="E18" s="25">
-        <f>D18-($B$17/COUNTA($C$11:$I$11))</f>
+      <c r="E18" s="23">
+        <f t="shared" si="3"/>
         <v>26.714285714285708</v>
       </c>
-      <c r="F18" s="25">
-        <f>E18-($B$17/COUNTA($C$11:$I$11))</f>
+      <c r="F18" s="23">
+        <f t="shared" si="3"/>
         <v>22.285714285714278</v>
       </c>
-      <c r="G18" s="25">
-        <f>F18-($B$17/COUNTA($C$11:$I$11))</f>
+      <c r="G18" s="23">
+        <f t="shared" si="3"/>
         <v>17.857142857142847</v>
       </c>
-      <c r="H18" s="25">
-        <f>G18-($B$17/COUNTA($C$11:$I$11))</f>
+      <c r="H18" s="23">
+        <f t="shared" si="3"/>
         <v>13.428571428571418</v>
       </c>
-      <c r="I18" s="25">
-        <f>H18-($B$17/COUNTA($C$11:$I$11))</f>
+      <c r="I18" s="23">
+        <f t="shared" si="3"/>
         <v>8.9999999999999893</v>
       </c>
     </row>
